--- a/data/Data_fish_YC.xlsx
+++ b/data/Data_fish_YC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgilbe01\Desktop\PhD_2020-2023_09\01.Analyses\Ker_Arctgazella-prey-poop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F79FE18-625C-42EC-9705-B68B86552D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FABEEC-9EA5-4496-A954-05A4F08DADDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31470" yWindow="2250" windowWidth="19425" windowHeight="10425" tabRatio="1000" xr2:uid="{63FB60A9-7299-4E64-8198-9CD82964FF61}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" xr2:uid="{63FB60A9-7299-4E64-8198-9CD82964FF61}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2384,9 +2384,6 @@
     <t>2010PII_MANCMAN_MM1_st66_C</t>
   </si>
   <si>
-    <t>Notolepsis coatsi</t>
-  </si>
-  <si>
     <t>2005_NOTOCOA_NC01</t>
   </si>
   <si>
@@ -2520,6 +2517,9 @@
   </si>
   <si>
     <t>Melamphaidae</t>
+  </si>
+  <si>
+    <t>Notolepis coatsi</t>
   </si>
 </sst>
 </file>
@@ -8783,7 +8783,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AB5AB86-2C13-4A63-BEBB-F18724BA41E0}" name="Tableau croisé dynamique2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AB5AB86-2C13-4A63-BEBB-F18724BA41E0}" name="Tableau croisé dynamique2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0">
@@ -10030,7 +10030,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10329,14 +10329,14 @@
   <dimension ref="A1:V511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="12000" ySplit="705" topLeftCell="N403" activePane="bottomLeft"/>
+      <pane xSplit="12000" ySplit="705" topLeftCell="N472" activePane="bottomLeft"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="G3" sqref="G1:G1048576"/>
-      <selection pane="bottomLeft" activeCell="A413" sqref="A413"/>
+      <selection pane="bottomLeft" activeCell="B480" sqref="B480"/>
       <selection pane="bottomRight" activeCell="S163" sqref="S163:S164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.26953125" bestFit="1" customWidth="1"/>
@@ -10427,7 +10427,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -10493,7 +10493,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -10559,7 +10559,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -10625,7 +10625,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -10691,7 +10691,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -10757,7 +10757,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -10823,7 +10823,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -10889,7 +10889,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -10955,7 +10955,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -11021,7 +11021,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -11087,7 +11087,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -11153,7 +11153,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -11216,7 +11216,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
@@ -11282,7 +11282,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
@@ -11348,7 +11348,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
@@ -11414,7 +11414,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
@@ -11480,7 +11480,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
@@ -11546,7 +11546,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
@@ -11612,7 +11612,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
@@ -11678,7 +11678,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -11744,7 +11744,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
@@ -11810,7 +11810,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
@@ -11876,7 +11876,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
@@ -11942,7 +11942,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B25" t="s">
         <v>45</v>
@@ -12008,7 +12008,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
@@ -12074,7 +12074,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
@@ -12137,7 +12137,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B28" t="s">
         <v>137</v>
@@ -12203,7 +12203,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B29" t="s">
         <v>137</v>
@@ -12269,7 +12269,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B30" t="s">
         <v>137</v>
@@ -12335,7 +12335,7 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B31" t="s">
         <v>137</v>
@@ -12401,7 +12401,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B32" t="s">
         <v>137</v>
@@ -12467,7 +12467,7 @@
     </row>
     <row r="33" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>137</v>
@@ -12536,7 +12536,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B34" t="s">
         <v>137</v>
@@ -12602,7 +12602,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B35" t="s">
         <v>137</v>
@@ -12668,7 +12668,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B36" t="s">
         <v>137</v>
@@ -12734,7 +12734,7 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B37" t="s">
         <v>137</v>
@@ -12800,7 +12800,7 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B38" t="s">
         <v>137</v>
@@ -12866,7 +12866,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B39" t="s">
         <v>137</v>
@@ -12932,7 +12932,7 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B40" t="s">
         <v>28</v>
@@ -12998,7 +12998,7 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B41" t="s">
         <v>28</v>
@@ -13064,7 +13064,7 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B42" t="s">
         <v>28</v>
@@ -13130,7 +13130,7 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B43" t="s">
         <v>28</v>
@@ -13196,7 +13196,7 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B44" t="s">
         <v>28</v>
@@ -13262,7 +13262,7 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B45" t="s">
         <v>28</v>
@@ -13328,7 +13328,7 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -13394,7 +13394,7 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B47" t="s">
         <v>28</v>
@@ -13460,7 +13460,7 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B48" t="s">
         <v>28</v>
@@ -13526,7 +13526,7 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B49" t="s">
         <v>28</v>
@@ -13592,7 +13592,7 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B50" t="s">
         <v>28</v>
@@ -13658,7 +13658,7 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B51" t="s">
         <v>28</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B52" t="s">
         <v>62</v>
@@ -13790,7 +13790,7 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B53" t="s">
         <v>62</v>
@@ -13856,7 +13856,7 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B54" t="s">
         <v>62</v>
@@ -13922,7 +13922,7 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B55" t="s">
         <v>62</v>
@@ -13988,7 +13988,7 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B56" t="s">
         <v>40</v>
@@ -14054,7 +14054,7 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B57" t="s">
         <v>40</v>
@@ -14120,7 +14120,7 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B58" t="s">
         <v>40</v>
@@ -14186,7 +14186,7 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B59" t="s">
         <v>40</v>
@@ -14252,7 +14252,7 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B60" t="s">
         <v>31</v>
@@ -14318,7 +14318,7 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B61" t="s">
         <v>31</v>
@@ -14384,7 +14384,7 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B62" t="s">
         <v>31</v>
@@ -14450,7 +14450,7 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B63" t="s">
         <v>31</v>
@@ -14516,7 +14516,7 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B64" t="s">
         <v>29</v>
@@ -14582,7 +14582,7 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B65" t="s">
         <v>29</v>
@@ -14648,7 +14648,7 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B66" t="s">
         <v>29</v>
@@ -14714,7 +14714,7 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B67" t="s">
         <v>29</v>
@@ -14780,7 +14780,7 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B68" t="s">
         <v>29</v>
@@ -14846,7 +14846,7 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B69" t="s">
         <v>29</v>
@@ -14912,7 +14912,7 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B70" t="s">
         <v>29</v>
@@ -14978,7 +14978,7 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B71" t="s">
         <v>29</v>
@@ -15044,7 +15044,7 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B72" t="s">
         <v>55</v>
@@ -15110,7 +15110,7 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B73" t="s">
         <v>55</v>
@@ -15176,7 +15176,7 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B74" t="s">
         <v>55</v>
@@ -15242,7 +15242,7 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B75" t="s">
         <v>55</v>
@@ -15308,7 +15308,7 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B76" t="s">
         <v>55</v>
@@ -15374,7 +15374,7 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B77" t="s">
         <v>55</v>
@@ -15440,7 +15440,7 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B78" t="s">
         <v>55</v>
@@ -15506,7 +15506,7 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B79" t="s">
         <v>55</v>
@@ -15572,7 +15572,7 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B80" t="s">
         <v>55</v>
@@ -15638,7 +15638,7 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B81" t="s">
         <v>55</v>
@@ -15704,7 +15704,7 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B82" t="s">
         <v>55</v>
@@ -15770,7 +15770,7 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B83" t="s">
         <v>135</v>
@@ -15836,7 +15836,7 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B84" t="s">
         <v>135</v>
@@ -15902,7 +15902,7 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B85" t="s">
         <v>135</v>
@@ -15968,7 +15968,7 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B86" t="s">
         <v>135</v>
@@ -16034,7 +16034,7 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B87" t="s">
         <v>135</v>
@@ -16100,7 +16100,7 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B88" t="s">
         <v>135</v>
@@ -16166,7 +16166,7 @@
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B89" t="s">
         <v>135</v>
@@ -16232,7 +16232,7 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B90" t="s">
         <v>135</v>
@@ -16298,7 +16298,7 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B91" t="s">
         <v>135</v>
@@ -16364,7 +16364,7 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B92" t="s">
         <v>135</v>
@@ -16430,7 +16430,7 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B93" t="s">
         <v>135</v>
@@ -16496,7 +16496,7 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B94" t="s">
         <v>153</v>
@@ -16562,7 +16562,7 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B95" t="s">
         <v>153</v>
@@ -16628,7 +16628,7 @@
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B96" t="s">
         <v>153</v>
@@ -16697,7 +16697,7 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B97" t="s">
         <v>153</v>
@@ -16763,7 +16763,7 @@
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B98" t="s">
         <v>153</v>
@@ -16829,7 +16829,7 @@
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B99" t="s">
         <v>153</v>
@@ -16898,7 +16898,7 @@
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B100" t="s">
         <v>153</v>
@@ -16964,7 +16964,7 @@
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B101" t="s">
         <v>153</v>
@@ -17030,7 +17030,7 @@
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B102" t="s">
         <v>153</v>
@@ -17099,7 +17099,7 @@
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B103" t="s">
         <v>153</v>
@@ -17165,7 +17165,7 @@
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B104" t="s">
         <v>153</v>
@@ -17231,7 +17231,7 @@
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B105" t="s">
         <v>153</v>
@@ -17300,7 +17300,7 @@
     </row>
     <row r="106" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B106" s="11" t="s">
         <v>153</v>
@@ -17366,7 +17366,7 @@
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B107" t="s">
         <v>153</v>
@@ -17432,7 +17432,7 @@
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B108" t="s">
         <v>153</v>
@@ -17501,7 +17501,7 @@
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B109" t="s">
         <v>153</v>
@@ -17567,7 +17567,7 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B110" t="s">
         <v>153</v>
@@ -17633,7 +17633,7 @@
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B111" t="s">
         <v>153</v>
@@ -17700,7 +17700,7 @@
     </row>
     <row r="112" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>153</v>
@@ -17769,7 +17769,7 @@
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B113" t="s">
         <v>153</v>
@@ -17835,7 +17835,7 @@
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B114" t="s">
         <v>153</v>
@@ -17902,7 +17902,7 @@
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B115" t="s">
         <v>153</v>
@@ -17968,7 +17968,7 @@
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B116" t="s">
         <v>153</v>
@@ -18034,7 +18034,7 @@
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B117" t="s">
         <v>153</v>
@@ -18101,7 +18101,7 @@
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B118" t="s">
         <v>153</v>
@@ -18167,7 +18167,7 @@
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B119" t="s">
         <v>153</v>
@@ -18233,7 +18233,7 @@
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B120" t="s">
         <v>153</v>
@@ -18302,7 +18302,7 @@
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B121" t="s">
         <v>153</v>
@@ -18368,7 +18368,7 @@
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B122" t="s">
         <v>153</v>
@@ -18434,7 +18434,7 @@
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B123" t="s">
         <v>153</v>
@@ -18503,7 +18503,7 @@
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B124" t="s">
         <v>153</v>
@@ -18569,7 +18569,7 @@
     </row>
     <row r="125" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>153</v>
@@ -18638,7 +18638,7 @@
     </row>
     <row r="126" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>153</v>
@@ -18707,7 +18707,7 @@
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B127" t="s">
         <v>153</v>
@@ -18773,7 +18773,7 @@
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B128" t="s">
         <v>153</v>
@@ -18839,7 +18839,7 @@
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B129" t="s">
         <v>153</v>
@@ -18906,7 +18906,7 @@
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B130" t="s">
         <v>62</v>
@@ -18972,7 +18972,7 @@
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B131" t="s">
         <v>62</v>
@@ -19038,7 +19038,7 @@
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B132" t="s">
         <v>62</v>
@@ -19104,7 +19104,7 @@
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B133" t="s">
         <v>62</v>
@@ -19170,7 +19170,7 @@
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B134" t="s">
         <v>62</v>
@@ -19236,7 +19236,7 @@
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B135" t="s">
         <v>62</v>
@@ -19302,7 +19302,7 @@
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B136" t="s">
         <v>62</v>
@@ -19368,7 +19368,7 @@
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B137" t="s">
         <v>62</v>
@@ -19434,7 +19434,7 @@
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B138" t="s">
         <v>182</v>
@@ -19500,7 +19500,7 @@
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B139" t="s">
         <v>182</v>
@@ -19566,7 +19566,7 @@
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B140" t="s">
         <v>182</v>
@@ -19632,7 +19632,7 @@
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B141" t="s">
         <v>182</v>
@@ -19698,7 +19698,7 @@
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B142" t="s">
         <v>182</v>
@@ -19764,7 +19764,7 @@
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B143" t="s">
         <v>182</v>
@@ -19830,7 +19830,7 @@
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B144" t="s">
         <v>182</v>
@@ -19896,7 +19896,7 @@
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B145" t="s">
         <v>182</v>
@@ -19962,7 +19962,7 @@
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B146" t="s">
         <v>182</v>
@@ -20028,7 +20028,7 @@
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B147" t="s">
         <v>182</v>
@@ -20094,7 +20094,7 @@
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B148" t="s">
         <v>182</v>
@@ -20160,7 +20160,7 @@
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B149" t="s">
         <v>182</v>
@@ -20226,7 +20226,7 @@
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B150" t="s">
         <v>153</v>
@@ -20292,7 +20292,7 @@
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B151" t="s">
         <v>153</v>
@@ -20358,7 +20358,7 @@
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -20415,7 +20415,7 @@
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B153" t="s">
         <v>153</v>
@@ -20478,7 +20478,7 @@
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B154" t="s">
         <v>153</v>
@@ -20541,7 +20541,7 @@
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B155" t="s">
         <v>153</v>
@@ -20604,7 +20604,7 @@
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B156" t="s">
         <v>153</v>
@@ -20667,7 +20667,7 @@
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B157" t="s">
         <v>153</v>
@@ -20730,7 +20730,7 @@
     </row>
     <row r="158" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B158" t="s">
         <v>153</v>
@@ -20787,7 +20787,7 @@
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B159" t="s">
         <v>153</v>
@@ -20850,7 +20850,7 @@
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B160" t="s">
         <v>153</v>
@@ -20913,7 +20913,7 @@
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B161" t="s">
         <v>153</v>
@@ -20970,7 +20970,7 @@
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B162" t="s">
         <v>153</v>
@@ -21036,7 +21036,7 @@
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B163" t="s">
         <v>153</v>
@@ -21102,7 +21102,7 @@
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B164" t="s">
         <v>153</v>
@@ -21159,7 +21159,7 @@
     </row>
     <row r="165" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B165" t="s">
         <v>62</v>
@@ -21225,7 +21225,7 @@
     </row>
     <row r="166" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>62</v>
@@ -21295,7 +21295,7 @@
     </row>
     <row r="167" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B167" t="s">
         <v>62</v>
@@ -21361,7 +21361,7 @@
     </row>
     <row r="168" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B168" t="s">
         <v>62</v>
@@ -21427,7 +21427,7 @@
     </row>
     <row r="169" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B169" t="s">
         <v>62</v>
@@ -21493,7 +21493,7 @@
     </row>
     <row r="170" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B170" t="s">
         <v>62</v>
@@ -21559,7 +21559,7 @@
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B171" t="s">
         <v>62</v>
@@ -21625,7 +21625,7 @@
     </row>
     <row r="172" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B172" t="s">
         <v>62</v>
@@ -21691,7 +21691,7 @@
     </row>
     <row r="173" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B173" t="s">
         <v>62</v>
@@ -21757,7 +21757,7 @@
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B174" t="s">
         <v>62</v>
@@ -21823,7 +21823,7 @@
     </row>
     <row r="175" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B175" t="s">
         <v>62</v>
@@ -21889,7 +21889,7 @@
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B176" t="s">
         <v>62</v>
@@ -21955,7 +21955,7 @@
     </row>
     <row r="177" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B177" t="s">
         <v>62</v>
@@ -22021,7 +22021,7 @@
     </row>
     <row r="178" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B178" t="s">
         <v>62</v>
@@ -22087,7 +22087,7 @@
     </row>
     <row r="179" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B179" t="s">
         <v>62</v>
@@ -22153,7 +22153,7 @@
     </row>
     <row r="180" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B180" t="s">
         <v>62</v>
@@ -22219,7 +22219,7 @@
     </row>
     <row r="181" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B181" t="s">
         <v>62</v>
@@ -22285,7 +22285,7 @@
     </row>
     <row r="182" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B182" t="s">
         <v>62</v>
@@ -22351,7 +22351,7 @@
     </row>
     <row r="183" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B183" t="s">
         <v>62</v>
@@ -22417,7 +22417,7 @@
     </row>
     <row r="184" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B184" t="s">
         <v>62</v>
@@ -22483,7 +22483,7 @@
     </row>
     <row r="185" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B185" t="s">
         <v>62</v>
@@ -22549,7 +22549,7 @@
     </row>
     <row r="186" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B186" t="s">
         <v>62</v>
@@ -22615,7 +22615,7 @@
     </row>
     <row r="187" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B187" t="s">
         <v>182</v>
@@ -22681,7 +22681,7 @@
     </row>
     <row r="188" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B188" t="s">
         <v>182</v>
@@ -22747,7 +22747,7 @@
     </row>
     <row r="189" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B189" t="s">
         <v>182</v>
@@ -22813,7 +22813,7 @@
     </row>
     <row r="190" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B190" t="s">
         <v>182</v>
@@ -22879,7 +22879,7 @@
     </row>
     <row r="191" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B191" t="s">
         <v>182</v>
@@ -22945,7 +22945,7 @@
     </row>
     <row r="192" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B192" s="9" t="s">
         <v>182</v>
@@ -23014,7 +23014,7 @@
     </row>
     <row r="193" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B193" s="9" t="s">
         <v>182</v>
@@ -23083,7 +23083,7 @@
     </row>
     <row r="194" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B194" s="9" t="s">
         <v>182</v>
@@ -23152,7 +23152,7 @@
     </row>
     <row r="195" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B195" s="9" t="s">
         <v>182</v>
@@ -23221,7 +23221,7 @@
     </row>
     <row r="196" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B196" t="s">
         <v>182</v>
@@ -23287,7 +23287,7 @@
     </row>
     <row r="197" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B197" t="s">
         <v>182</v>
@@ -23353,7 +23353,7 @@
     </row>
     <row r="198" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B198" t="s">
         <v>182</v>
@@ -23419,7 +23419,7 @@
     </row>
     <row r="199" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B199" t="s">
         <v>182</v>
@@ -23485,7 +23485,7 @@
     </row>
     <row r="200" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B200" t="s">
         <v>182</v>
@@ -23551,7 +23551,7 @@
     </row>
     <row r="201" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B201" t="s">
         <v>182</v>
@@ -23617,7 +23617,7 @@
     </row>
     <row r="202" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B202" t="s">
         <v>182</v>
@@ -23683,7 +23683,7 @@
     </row>
     <row r="203" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B203" t="s">
         <v>264</v>
@@ -23749,7 +23749,7 @@
     </row>
     <row r="204" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B204" t="s">
         <v>264</v>
@@ -23815,7 +23815,7 @@
     </row>
     <row r="205" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B205" t="s">
         <v>264</v>
@@ -23881,7 +23881,7 @@
     </row>
     <row r="206" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B206" t="s">
         <v>264</v>
@@ -23947,7 +23947,7 @@
     </row>
     <row r="207" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B207" t="s">
         <v>264</v>
@@ -24013,7 +24013,7 @@
     </row>
     <row r="208" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B208" t="s">
         <v>264</v>
@@ -24079,7 +24079,7 @@
     </row>
     <row r="209" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B209" t="s">
         <v>264</v>
@@ -24145,7 +24145,7 @@
     </row>
     <row r="210" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B210" t="s">
         <v>264</v>
@@ -24211,7 +24211,7 @@
     </row>
     <row r="211" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B211" t="s">
         <v>264</v>
@@ -24277,7 +24277,7 @@
     </row>
     <row r="212" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B212" t="s">
         <v>264</v>
@@ -24343,7 +24343,7 @@
     </row>
     <row r="213" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B213" t="s">
         <v>264</v>
@@ -24409,7 +24409,7 @@
     </row>
     <row r="214" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B214" t="s">
         <v>62</v>
@@ -24475,7 +24475,7 @@
     </row>
     <row r="215" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B215" t="s">
         <v>62</v>
@@ -24541,7 +24541,7 @@
     </row>
     <row r="216" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B216" t="s">
         <v>62</v>
@@ -24607,7 +24607,7 @@
     </row>
     <row r="217" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B217" t="s">
         <v>62</v>
@@ -24673,7 +24673,7 @@
     </row>
     <row r="218" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B218" t="s">
         <v>62</v>
@@ -24739,7 +24739,7 @@
     </row>
     <row r="219" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B219" t="s">
         <v>62</v>
@@ -24805,7 +24805,7 @@
     </row>
     <row r="220" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B220" t="s">
         <v>62</v>
@@ -24871,7 +24871,7 @@
     </row>
     <row r="221" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B221" t="s">
         <v>62</v>
@@ -24937,7 +24937,7 @@
     </row>
     <row r="222" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B222" t="s">
         <v>62</v>
@@ -25003,7 +25003,7 @@
     </row>
     <row r="223" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B223" t="s">
         <v>62</v>
@@ -25069,7 +25069,7 @@
     </row>
     <row r="224" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B224" t="s">
         <v>62</v>
@@ -25135,7 +25135,7 @@
     </row>
     <row r="225" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B225" t="s">
         <v>62</v>
@@ -25201,7 +25201,7 @@
     </row>
     <row r="226" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B226" t="s">
         <v>264</v>
@@ -25267,7 +25267,7 @@
     </row>
     <row r="227" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B227" t="s">
         <v>264</v>
@@ -25333,7 +25333,7 @@
     </row>
     <row r="228" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B228" t="s">
         <v>264</v>
@@ -25399,7 +25399,7 @@
     </row>
     <row r="229" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B229" t="s">
         <v>264</v>
@@ -25465,7 +25465,7 @@
     </row>
     <row r="230" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B230" t="s">
         <v>264</v>
@@ -25531,7 +25531,7 @@
     </row>
     <row r="231" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B231" t="s">
         <v>264</v>
@@ -25597,7 +25597,7 @@
     </row>
     <row r="232" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B232" t="s">
         <v>264</v>
@@ -25663,7 +25663,7 @@
     </row>
     <row r="233" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B233" t="s">
         <v>264</v>
@@ -25729,7 +25729,7 @@
     </row>
     <row r="234" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B234" t="s">
         <v>264</v>
@@ -25795,7 +25795,7 @@
     </row>
     <row r="235" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B235" t="s">
         <v>264</v>
@@ -25861,7 +25861,7 @@
     </row>
     <row r="236" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B236" t="s">
         <v>264</v>
@@ -25927,7 +25927,7 @@
     </row>
     <row r="237" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B237" t="s">
         <v>264</v>
@@ -25993,7 +25993,7 @@
     </row>
     <row r="238" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B238" t="s">
         <v>264</v>
@@ -26059,7 +26059,7 @@
     </row>
     <row r="239" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B239" t="s">
         <v>264</v>
@@ -26125,7 +26125,7 @@
     </row>
     <row r="240" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B240" t="s">
         <v>264</v>
@@ -26191,7 +26191,7 @@
     </row>
     <row r="241" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B241" t="s">
         <v>264</v>
@@ -26257,7 +26257,7 @@
     </row>
     <row r="242" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B242" t="s">
         <v>264</v>
@@ -26323,7 +26323,7 @@
     </row>
     <row r="243" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B243" t="s">
         <v>264</v>
@@ -26389,7 +26389,7 @@
     </row>
     <row r="244" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B244" t="s">
         <v>45</v>
@@ -26455,7 +26455,7 @@
     </row>
     <row r="245" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B245" t="s">
         <v>45</v>
@@ -26521,7 +26521,7 @@
     </row>
     <row r="246" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B246" t="s">
         <v>45</v>
@@ -26587,7 +26587,7 @@
     </row>
     <row r="247" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B247" t="s">
         <v>45</v>
@@ -26653,7 +26653,7 @@
     </row>
     <row r="248" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B248" t="s">
         <v>45</v>
@@ -26719,7 +26719,7 @@
     </row>
     <row r="249" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B249" t="s">
         <v>45</v>
@@ -26785,7 +26785,7 @@
     </row>
     <row r="250" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B250" t="s">
         <v>45</v>
@@ -26851,7 +26851,7 @@
     </row>
     <row r="251" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B251" t="s">
         <v>45</v>
@@ -37634,7 +37634,7 @@
     </row>
     <row r="413" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B413" t="s">
         <v>612</v>
@@ -39072,7 +39072,7 @@
         <v>235</v>
       </c>
       <c r="T434" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="U434" s="19" t="s">
         <v>558</v>
@@ -41942,7 +41942,7 @@
         <v>764</v>
       </c>
       <c r="D478" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E478" s="3">
         <v>44711</v>
@@ -42140,7 +42140,7 @@
         <v>773</v>
       </c>
       <c r="D481" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E481" s="3">
         <v>44711</v>
@@ -42206,7 +42206,7 @@
         <v>774</v>
       </c>
       <c r="D482" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E482" s="3">
         <v>44711</v>
@@ -42272,7 +42272,7 @@
         <v>779</v>
       </c>
       <c r="D483" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E483" s="3">
         <v>44711</v>
@@ -42338,7 +42338,7 @@
         <v>772</v>
       </c>
       <c r="D484" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E484" s="3">
         <v>44711</v>
@@ -42407,7 +42407,7 @@
         <v>775</v>
       </c>
       <c r="D485" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E485" s="3">
         <v>44711</v>
@@ -42473,7 +42473,7 @@
         <v>776</v>
       </c>
       <c r="D486" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E486" s="3">
         <v>44711</v>
@@ -42539,7 +42539,7 @@
         <v>778</v>
       </c>
       <c r="D487" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E487" s="3">
         <v>44711</v>
@@ -42605,7 +42605,7 @@
         <v>777</v>
       </c>
       <c r="D488" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E488" s="3">
         <v>44711</v>
@@ -42668,13 +42668,13 @@
         <v>763</v>
       </c>
       <c r="B489" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="C489" t="s">
         <v>780</v>
       </c>
-      <c r="C489" t="s">
-        <v>781</v>
-      </c>
       <c r="D489" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E489" s="3">
         <v>44711</v>
@@ -42731,13 +42731,13 @@
         <v>763</v>
       </c>
       <c r="B490" s="17" t="s">
-        <v>780</v>
+        <v>825</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D490" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E490" s="18">
         <v>44711</v>
@@ -42786,7 +42786,7 @@
         <v>233</v>
       </c>
       <c r="T490" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="U490" t="s">
         <v>301</v>
@@ -42800,13 +42800,13 @@
         <v>763</v>
       </c>
       <c r="B491" s="17" t="s">
-        <v>780</v>
+        <v>825</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D491" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E491" s="18">
         <v>44711</v>
@@ -42855,7 +42855,7 @@
         <v>233</v>
       </c>
       <c r="T491" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="U491" t="s">
         <v>301</v>
@@ -42869,13 +42869,13 @@
         <v>763</v>
       </c>
       <c r="B492" s="12" t="s">
-        <v>780</v>
+        <v>825</v>
       </c>
       <c r="C492" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D492" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E492" s="3">
         <v>44711</v>
@@ -42935,13 +42935,13 @@
         <v>763</v>
       </c>
       <c r="B493" s="12" t="s">
-        <v>780</v>
+        <v>825</v>
       </c>
       <c r="C493" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D493" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E493" s="3">
         <v>44711</v>
@@ -43001,13 +43001,13 @@
         <v>763</v>
       </c>
       <c r="B494" s="12" t="s">
-        <v>780</v>
+        <v>825</v>
       </c>
       <c r="C494" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D494" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E494" s="3">
         <v>44711</v>
@@ -43067,13 +43067,13 @@
         <v>763</v>
       </c>
       <c r="B495" s="12" t="s">
-        <v>780</v>
+        <v>825</v>
       </c>
       <c r="C495" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D495" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E495" s="3">
         <v>44711</v>
@@ -43133,13 +43133,13 @@
         <v>763</v>
       </c>
       <c r="B496" s="12" t="s">
-        <v>780</v>
+        <v>825</v>
       </c>
       <c r="C496" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D496" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E496" s="3">
         <v>44711</v>
@@ -43199,13 +43199,13 @@
         <v>763</v>
       </c>
       <c r="B497" s="12" t="s">
-        <v>780</v>
+        <v>825</v>
       </c>
       <c r="C497" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D497" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E497" s="3">
         <v>44711</v>
@@ -43265,13 +43265,13 @@
         <v>763</v>
       </c>
       <c r="B498" s="12" t="s">
-        <v>780</v>
+        <v>825</v>
       </c>
       <c r="C498" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D498" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E498" s="3">
         <v>44711</v>
@@ -43331,13 +43331,13 @@
         <v>763</v>
       </c>
       <c r="B499" s="12" t="s">
-        <v>780</v>
+        <v>825</v>
       </c>
       <c r="C499" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D499" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E499" s="3">
         <v>44711</v>
@@ -43397,13 +43397,13 @@
         <v>763</v>
       </c>
       <c r="B500" s="12" t="s">
-        <v>780</v>
+        <v>825</v>
       </c>
       <c r="C500" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D500" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E500" s="3">
         <v>44711</v>
@@ -43463,13 +43463,13 @@
         <v>690</v>
       </c>
       <c r="B501" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="C501" s="19" t="s">
+        <v>801</v>
+      </c>
+      <c r="D501" s="19" t="s">
         <v>794</v>
-      </c>
-      <c r="C501" s="19" t="s">
-        <v>802</v>
-      </c>
-      <c r="D501" s="19" t="s">
-        <v>795</v>
       </c>
       <c r="E501" s="20">
         <v>44711</v>
@@ -43518,7 +43518,7 @@
         <v>233</v>
       </c>
       <c r="T501" s="19" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="U501" s="19" t="s">
         <v>558</v>
@@ -43532,13 +43532,13 @@
         <v>690</v>
       </c>
       <c r="B502" s="12" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C502" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D502" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E502" s="3">
         <v>44711</v>
@@ -43598,13 +43598,13 @@
         <v>690</v>
       </c>
       <c r="B503" s="12" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C503" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D503" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E503" s="3">
         <v>44711</v>
@@ -43664,13 +43664,13 @@
         <v>690</v>
       </c>
       <c r="B504" s="12" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C504" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D504" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E504" s="3">
         <v>44711</v>
@@ -43730,13 +43730,13 @@
         <v>690</v>
       </c>
       <c r="B505" s="22" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C505" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D505" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E505" s="20">
         <v>44711</v>
@@ -43785,7 +43785,7 @@
         <v>233</v>
       </c>
       <c r="T505" s="19" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="U505" s="19" t="s">
         <v>558</v>
@@ -43799,13 +43799,13 @@
         <v>690</v>
       </c>
       <c r="B506" s="22" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C506" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D506" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E506" s="20">
         <v>44711</v>
@@ -43854,7 +43854,7 @@
         <v>233</v>
       </c>
       <c r="T506" s="19" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="U506" s="19" t="s">
         <v>558</v>
@@ -43868,13 +43868,13 @@
         <v>690</v>
       </c>
       <c r="B507" s="22" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C507" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D507" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E507" s="20">
         <v>44711</v>
@@ -43923,7 +43923,7 @@
         <v>233</v>
       </c>
       <c r="T507" s="19" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="U507" s="19" t="s">
         <v>558</v>
@@ -43940,10 +43940,10 @@
         <v>581</v>
       </c>
       <c r="C508" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D508" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E508" s="3">
         <v>44711</v>
@@ -44006,10 +44006,10 @@
         <v>581</v>
       </c>
       <c r="C509" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D509" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E509" s="3">
         <v>44711</v>
@@ -44072,10 +44072,10 @@
         <v>581</v>
       </c>
       <c r="C510" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D510" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E510" s="3">
         <v>44711</v>
@@ -44138,10 +44138,10 @@
         <v>581</v>
       </c>
       <c r="C511" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D511" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E511" s="3">
         <v>44711</v>
@@ -44214,7 +44214,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
@@ -44380,7 +44380,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.26953125" bestFit="1" customWidth="1"/>
@@ -44463,7 +44463,7 @@
         <v>773</v>
       </c>
       <c r="B10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -44471,7 +44471,7 @@
         <v>774</v>
       </c>
       <c r="B11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -44479,7 +44479,7 @@
         <v>779</v>
       </c>
       <c r="B12" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -44487,7 +44487,7 @@
         <v>775</v>
       </c>
       <c r="B13" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -44495,7 +44495,7 @@
         <v>776</v>
       </c>
       <c r="B14" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -44503,63 +44503,63 @@
         <v>778</v>
       </c>
       <c r="B15" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B16" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B17" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B18" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B20" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B21" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B22" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_fish_YC.xlsx
+++ b/data/Data_fish_YC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgilbe01\Desktop\PhD_2020-2023_09\01.Analyses\Ker_Arctgazella-prey-poop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FABEEC-9EA5-4496-A954-05A4F08DADDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16CDE71-8373-4B17-9FB2-AC8AA5327749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" xr2:uid="{63FB60A9-7299-4E64-8198-9CD82964FF61}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="1000" xr2:uid="{63FB60A9-7299-4E64-8198-9CD82964FF61}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1715,9 +1715,6 @@
     <t>2005_PARAGRA_PG10</t>
   </si>
   <si>
-    <t>Muraenolepsis sp</t>
-  </si>
-  <si>
     <t>Poker II</t>
   </si>
   <si>
@@ -2520,6 +2517,9 @@
   </si>
   <si>
     <t>Notolepis coatsi</t>
+  </si>
+  <si>
+    <t>Muraenolepis sp</t>
   </si>
 </sst>
 </file>
@@ -10329,10 +10329,10 @@
   <dimension ref="A1:V511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="12000" ySplit="705" topLeftCell="N472" activePane="bottomLeft"/>
+      <pane xSplit="12000" ySplit="710" topLeftCell="N395" activePane="bottomLeft"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="G3" sqref="G1:G1048576"/>
-      <selection pane="bottomLeft" activeCell="B480" sqref="B480"/>
+      <selection pane="bottomLeft" activeCell="B403" sqref="B403"/>
       <selection pane="bottomRight" activeCell="S163" sqref="S163:S164"/>
     </sheetView>
   </sheetViews>
@@ -10359,7 +10359,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>27</v>
@@ -10377,7 +10377,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -10427,7 +10427,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -10493,7 +10493,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -10559,7 +10559,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -10625,7 +10625,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -10691,7 +10691,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -10757,7 +10757,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -10823,7 +10823,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -10889,7 +10889,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -10955,7 +10955,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -11021,7 +11021,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -11087,7 +11087,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -11153,7 +11153,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -11216,7 +11216,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
@@ -11282,7 +11282,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
@@ -11348,7 +11348,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
@@ -11414,7 +11414,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
@@ -11480,7 +11480,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
@@ -11546,7 +11546,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
@@ -11612,7 +11612,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
@@ -11678,7 +11678,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -11744,7 +11744,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
@@ -11810,7 +11810,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
@@ -11876,7 +11876,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
@@ -11942,7 +11942,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B25" t="s">
         <v>45</v>
@@ -12008,7 +12008,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
@@ -12074,7 +12074,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
@@ -12137,7 +12137,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B28" t="s">
         <v>137</v>
@@ -12203,7 +12203,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B29" t="s">
         <v>137</v>
@@ -12269,7 +12269,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B30" t="s">
         <v>137</v>
@@ -12335,7 +12335,7 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B31" t="s">
         <v>137</v>
@@ -12401,7 +12401,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B32" t="s">
         <v>137</v>
@@ -12467,7 +12467,7 @@
     </row>
     <row r="33" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>137</v>
@@ -12536,7 +12536,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B34" t="s">
         <v>137</v>
@@ -12602,7 +12602,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B35" t="s">
         <v>137</v>
@@ -12668,7 +12668,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B36" t="s">
         <v>137</v>
@@ -12734,7 +12734,7 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B37" t="s">
         <v>137</v>
@@ -12800,7 +12800,7 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B38" t="s">
         <v>137</v>
@@ -12866,7 +12866,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B39" t="s">
         <v>137</v>
@@ -12932,7 +12932,7 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B40" t="s">
         <v>28</v>
@@ -12998,7 +12998,7 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B41" t="s">
         <v>28</v>
@@ -13064,7 +13064,7 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B42" t="s">
         <v>28</v>
@@ -13130,7 +13130,7 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B43" t="s">
         <v>28</v>
@@ -13196,7 +13196,7 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B44" t="s">
         <v>28</v>
@@ -13262,7 +13262,7 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B45" t="s">
         <v>28</v>
@@ -13328,7 +13328,7 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -13394,7 +13394,7 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B47" t="s">
         <v>28</v>
@@ -13460,7 +13460,7 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B48" t="s">
         <v>28</v>
@@ -13526,7 +13526,7 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B49" t="s">
         <v>28</v>
@@ -13592,7 +13592,7 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B50" t="s">
         <v>28</v>
@@ -13658,7 +13658,7 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B51" t="s">
         <v>28</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B52" t="s">
         <v>62</v>
@@ -13790,7 +13790,7 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B53" t="s">
         <v>62</v>
@@ -13856,7 +13856,7 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B54" t="s">
         <v>62</v>
@@ -13922,7 +13922,7 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B55" t="s">
         <v>62</v>
@@ -13988,7 +13988,7 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B56" t="s">
         <v>40</v>
@@ -14054,7 +14054,7 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B57" t="s">
         <v>40</v>
@@ -14120,7 +14120,7 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B58" t="s">
         <v>40</v>
@@ -14186,7 +14186,7 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B59" t="s">
         <v>40</v>
@@ -14252,7 +14252,7 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B60" t="s">
         <v>31</v>
@@ -14318,7 +14318,7 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B61" t="s">
         <v>31</v>
@@ -14384,7 +14384,7 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B62" t="s">
         <v>31</v>
@@ -14450,7 +14450,7 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B63" t="s">
         <v>31</v>
@@ -14516,7 +14516,7 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B64" t="s">
         <v>29</v>
@@ -14582,7 +14582,7 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B65" t="s">
         <v>29</v>
@@ -14648,7 +14648,7 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B66" t="s">
         <v>29</v>
@@ -14714,7 +14714,7 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B67" t="s">
         <v>29</v>
@@ -14780,7 +14780,7 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B68" t="s">
         <v>29</v>
@@ -14846,7 +14846,7 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B69" t="s">
         <v>29</v>
@@ -14912,7 +14912,7 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B70" t="s">
         <v>29</v>
@@ -14978,7 +14978,7 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B71" t="s">
         <v>29</v>
@@ -15044,7 +15044,7 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B72" t="s">
         <v>55</v>
@@ -15110,7 +15110,7 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B73" t="s">
         <v>55</v>
@@ -15176,7 +15176,7 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B74" t="s">
         <v>55</v>
@@ -15242,7 +15242,7 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B75" t="s">
         <v>55</v>
@@ -15308,7 +15308,7 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B76" t="s">
         <v>55</v>
@@ -15374,7 +15374,7 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B77" t="s">
         <v>55</v>
@@ -15440,7 +15440,7 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B78" t="s">
         <v>55</v>
@@ -15506,7 +15506,7 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B79" t="s">
         <v>55</v>
@@ -15572,7 +15572,7 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B80" t="s">
         <v>55</v>
@@ -15638,7 +15638,7 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B81" t="s">
         <v>55</v>
@@ -15704,7 +15704,7 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B82" t="s">
         <v>55</v>
@@ -15770,7 +15770,7 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B83" t="s">
         <v>135</v>
@@ -15836,7 +15836,7 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B84" t="s">
         <v>135</v>
@@ -15902,7 +15902,7 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B85" t="s">
         <v>135</v>
@@ -15968,7 +15968,7 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B86" t="s">
         <v>135</v>
@@ -16034,7 +16034,7 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B87" t="s">
         <v>135</v>
@@ -16100,7 +16100,7 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B88" t="s">
         <v>135</v>
@@ -16166,7 +16166,7 @@
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B89" t="s">
         <v>135</v>
@@ -16232,7 +16232,7 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B90" t="s">
         <v>135</v>
@@ -16298,7 +16298,7 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B91" t="s">
         <v>135</v>
@@ -16364,7 +16364,7 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B92" t="s">
         <v>135</v>
@@ -16430,7 +16430,7 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B93" t="s">
         <v>135</v>
@@ -16496,7 +16496,7 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B94" t="s">
         <v>153</v>
@@ -16562,7 +16562,7 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B95" t="s">
         <v>153</v>
@@ -16628,16 +16628,16 @@
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B96" t="s">
         <v>153</v>
       </c>
       <c r="C96" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D96" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E96" s="3">
         <v>44476</v>
@@ -16697,7 +16697,7 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B97" t="s">
         <v>153</v>
@@ -16763,7 +16763,7 @@
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B98" t="s">
         <v>153</v>
@@ -16829,16 +16829,16 @@
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B99" t="s">
         <v>153</v>
       </c>
       <c r="C99" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D99" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E99" s="3">
         <v>44476</v>
@@ -16898,7 +16898,7 @@
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B100" t="s">
         <v>153</v>
@@ -16964,7 +16964,7 @@
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B101" t="s">
         <v>153</v>
@@ -17030,16 +17030,16 @@
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B102" t="s">
         <v>153</v>
       </c>
       <c r="C102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E102" s="3">
         <v>44473</v>
@@ -17099,7 +17099,7 @@
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B103" t="s">
         <v>153</v>
@@ -17165,7 +17165,7 @@
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B104" t="s">
         <v>153</v>
@@ -17231,16 +17231,16 @@
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B105" t="s">
         <v>153</v>
       </c>
       <c r="C105" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D105" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E105" s="3">
         <v>44473</v>
@@ -17300,7 +17300,7 @@
     </row>
     <row r="106" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B106" s="11" t="s">
         <v>153</v>
@@ -17366,7 +17366,7 @@
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B107" t="s">
         <v>153</v>
@@ -17432,16 +17432,16 @@
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B108" t="s">
         <v>153</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E108" s="3">
         <v>44473</v>
@@ -17501,7 +17501,7 @@
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B109" t="s">
         <v>153</v>
@@ -17567,7 +17567,7 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B110" t="s">
         <v>153</v>
@@ -17633,16 +17633,16 @@
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B111" t="s">
         <v>153</v>
       </c>
       <c r="C111" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D111" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E111" s="3">
         <v>44473</v>
@@ -17700,7 +17700,7 @@
     </row>
     <row r="112" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>153</v>
@@ -17769,7 +17769,7 @@
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B113" t="s">
         <v>153</v>
@@ -17835,16 +17835,16 @@
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B114" t="s">
         <v>153</v>
       </c>
       <c r="C114" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D114" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E114" s="3">
         <v>44473</v>
@@ -17902,7 +17902,7 @@
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B115" t="s">
         <v>153</v>
@@ -17968,7 +17968,7 @@
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B116" t="s">
         <v>153</v>
@@ -18034,16 +18034,16 @@
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B117" t="s">
         <v>153</v>
       </c>
       <c r="C117" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D117" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E117" s="3">
         <v>44473</v>
@@ -18101,7 +18101,7 @@
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B118" t="s">
         <v>153</v>
@@ -18167,7 +18167,7 @@
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B119" t="s">
         <v>153</v>
@@ -18233,16 +18233,16 @@
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B120" t="s">
         <v>153</v>
       </c>
       <c r="C120" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D120" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E120" s="3">
         <v>44476</v>
@@ -18302,7 +18302,7 @@
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B121" t="s">
         <v>153</v>
@@ -18368,7 +18368,7 @@
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B122" t="s">
         <v>153</v>
@@ -18434,16 +18434,16 @@
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B123" t="s">
         <v>153</v>
       </c>
       <c r="C123" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D123" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E123" s="3">
         <v>44476</v>
@@ -18503,7 +18503,7 @@
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B124" t="s">
         <v>153</v>
@@ -18569,7 +18569,7 @@
     </row>
     <row r="125" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>153</v>
@@ -18638,16 +18638,16 @@
     </row>
     <row r="126" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>153</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D126" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E126" s="3">
         <v>44476</v>
@@ -18707,7 +18707,7 @@
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B127" t="s">
         <v>153</v>
@@ -18773,7 +18773,7 @@
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B128" t="s">
         <v>153</v>
@@ -18839,16 +18839,16 @@
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B129" t="s">
         <v>153</v>
       </c>
       <c r="C129" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D129" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E129" s="3">
         <v>44473</v>
@@ -18906,7 +18906,7 @@
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B130" t="s">
         <v>62</v>
@@ -18972,7 +18972,7 @@
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B131" t="s">
         <v>62</v>
@@ -19038,7 +19038,7 @@
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B132" t="s">
         <v>62</v>
@@ -19104,7 +19104,7 @@
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B133" t="s">
         <v>62</v>
@@ -19170,7 +19170,7 @@
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B134" t="s">
         <v>62</v>
@@ -19236,7 +19236,7 @@
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B135" t="s">
         <v>62</v>
@@ -19302,7 +19302,7 @@
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B136" t="s">
         <v>62</v>
@@ -19368,7 +19368,7 @@
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B137" t="s">
         <v>62</v>
@@ -19434,7 +19434,7 @@
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B138" t="s">
         <v>182</v>
@@ -19500,7 +19500,7 @@
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B139" t="s">
         <v>182</v>
@@ -19566,7 +19566,7 @@
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B140" t="s">
         <v>182</v>
@@ -19632,7 +19632,7 @@
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B141" t="s">
         <v>182</v>
@@ -19698,7 +19698,7 @@
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B142" t="s">
         <v>182</v>
@@ -19764,7 +19764,7 @@
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B143" t="s">
         <v>182</v>
@@ -19830,7 +19830,7 @@
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B144" t="s">
         <v>182</v>
@@ -19896,7 +19896,7 @@
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B145" t="s">
         <v>182</v>
@@ -19962,7 +19962,7 @@
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B146" t="s">
         <v>182</v>
@@ -20028,7 +20028,7 @@
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B147" t="s">
         <v>182</v>
@@ -20094,7 +20094,7 @@
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B148" t="s">
         <v>182</v>
@@ -20160,7 +20160,7 @@
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B149" t="s">
         <v>182</v>
@@ -20226,7 +20226,7 @@
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B150" t="s">
         <v>153</v>
@@ -20292,7 +20292,7 @@
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B151" t="s">
         <v>153</v>
@@ -20358,7 +20358,7 @@
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -20415,7 +20415,7 @@
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B153" t="s">
         <v>153</v>
@@ -20478,7 +20478,7 @@
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B154" t="s">
         <v>153</v>
@@ -20541,7 +20541,7 @@
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B155" t="s">
         <v>153</v>
@@ -20604,7 +20604,7 @@
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B156" t="s">
         <v>153</v>
@@ -20667,7 +20667,7 @@
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B157" t="s">
         <v>153</v>
@@ -20730,7 +20730,7 @@
     </row>
     <row r="158" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B158" t="s">
         <v>153</v>
@@ -20787,7 +20787,7 @@
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B159" t="s">
         <v>153</v>
@@ -20850,7 +20850,7 @@
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B160" t="s">
         <v>153</v>
@@ -20913,7 +20913,7 @@
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B161" t="s">
         <v>153</v>
@@ -20970,7 +20970,7 @@
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B162" t="s">
         <v>153</v>
@@ -21036,7 +21036,7 @@
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B163" t="s">
         <v>153</v>
@@ -21102,7 +21102,7 @@
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B164" t="s">
         <v>153</v>
@@ -21159,7 +21159,7 @@
     </row>
     <row r="165" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B165" t="s">
         <v>62</v>
@@ -21225,7 +21225,7 @@
     </row>
     <row r="166" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>62</v>
@@ -21295,7 +21295,7 @@
     </row>
     <row r="167" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B167" t="s">
         <v>62</v>
@@ -21361,7 +21361,7 @@
     </row>
     <row r="168" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B168" t="s">
         <v>62</v>
@@ -21427,7 +21427,7 @@
     </row>
     <row r="169" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B169" t="s">
         <v>62</v>
@@ -21493,7 +21493,7 @@
     </row>
     <row r="170" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B170" t="s">
         <v>62</v>
@@ -21559,7 +21559,7 @@
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B171" t="s">
         <v>62</v>
@@ -21625,7 +21625,7 @@
     </row>
     <row r="172" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B172" t="s">
         <v>62</v>
@@ -21691,7 +21691,7 @@
     </row>
     <row r="173" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B173" t="s">
         <v>62</v>
@@ -21757,7 +21757,7 @@
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B174" t="s">
         <v>62</v>
@@ -21823,7 +21823,7 @@
     </row>
     <row r="175" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B175" t="s">
         <v>62</v>
@@ -21889,7 +21889,7 @@
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B176" t="s">
         <v>62</v>
@@ -21955,7 +21955,7 @@
     </row>
     <row r="177" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B177" t="s">
         <v>62</v>
@@ -22021,7 +22021,7 @@
     </row>
     <row r="178" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B178" t="s">
         <v>62</v>
@@ -22087,7 +22087,7 @@
     </row>
     <row r="179" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B179" t="s">
         <v>62</v>
@@ -22153,7 +22153,7 @@
     </row>
     <row r="180" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B180" t="s">
         <v>62</v>
@@ -22219,7 +22219,7 @@
     </row>
     <row r="181" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B181" t="s">
         <v>62</v>
@@ -22285,7 +22285,7 @@
     </row>
     <row r="182" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B182" t="s">
         <v>62</v>
@@ -22351,7 +22351,7 @@
     </row>
     <row r="183" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B183" t="s">
         <v>62</v>
@@ -22417,7 +22417,7 @@
     </row>
     <row r="184" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B184" t="s">
         <v>62</v>
@@ -22483,7 +22483,7 @@
     </row>
     <row r="185" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B185" t="s">
         <v>62</v>
@@ -22549,7 +22549,7 @@
     </row>
     <row r="186" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B186" t="s">
         <v>62</v>
@@ -22615,7 +22615,7 @@
     </row>
     <row r="187" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B187" t="s">
         <v>182</v>
@@ -22681,7 +22681,7 @@
     </row>
     <row r="188" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B188" t="s">
         <v>182</v>
@@ -22747,7 +22747,7 @@
     </row>
     <row r="189" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B189" t="s">
         <v>182</v>
@@ -22813,7 +22813,7 @@
     </row>
     <row r="190" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B190" t="s">
         <v>182</v>
@@ -22879,7 +22879,7 @@
     </row>
     <row r="191" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B191" t="s">
         <v>182</v>
@@ -22945,7 +22945,7 @@
     </row>
     <row r="192" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B192" s="9" t="s">
         <v>182</v>
@@ -23014,7 +23014,7 @@
     </row>
     <row r="193" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B193" s="9" t="s">
         <v>182</v>
@@ -23083,7 +23083,7 @@
     </row>
     <row r="194" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B194" s="9" t="s">
         <v>182</v>
@@ -23152,7 +23152,7 @@
     </row>
     <row r="195" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B195" s="9" t="s">
         <v>182</v>
@@ -23221,7 +23221,7 @@
     </row>
     <row r="196" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B196" t="s">
         <v>182</v>
@@ -23287,7 +23287,7 @@
     </row>
     <row r="197" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B197" t="s">
         <v>182</v>
@@ -23353,7 +23353,7 @@
     </row>
     <row r="198" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B198" t="s">
         <v>182</v>
@@ -23419,7 +23419,7 @@
     </row>
     <row r="199" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B199" t="s">
         <v>182</v>
@@ -23485,7 +23485,7 @@
     </row>
     <row r="200" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B200" t="s">
         <v>182</v>
@@ -23551,7 +23551,7 @@
     </row>
     <row r="201" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B201" t="s">
         <v>182</v>
@@ -23617,7 +23617,7 @@
     </row>
     <row r="202" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B202" t="s">
         <v>182</v>
@@ -23683,7 +23683,7 @@
     </row>
     <row r="203" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B203" t="s">
         <v>264</v>
@@ -23749,7 +23749,7 @@
     </row>
     <row r="204" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B204" t="s">
         <v>264</v>
@@ -23815,7 +23815,7 @@
     </row>
     <row r="205" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B205" t="s">
         <v>264</v>
@@ -23881,7 +23881,7 @@
     </row>
     <row r="206" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B206" t="s">
         <v>264</v>
@@ -23947,7 +23947,7 @@
     </row>
     <row r="207" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B207" t="s">
         <v>264</v>
@@ -24013,7 +24013,7 @@
     </row>
     <row r="208" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B208" t="s">
         <v>264</v>
@@ -24079,7 +24079,7 @@
     </row>
     <row r="209" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B209" t="s">
         <v>264</v>
@@ -24145,7 +24145,7 @@
     </row>
     <row r="210" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B210" t="s">
         <v>264</v>
@@ -24211,7 +24211,7 @@
     </row>
     <row r="211" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B211" t="s">
         <v>264</v>
@@ -24277,7 +24277,7 @@
     </row>
     <row r="212" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B212" t="s">
         <v>264</v>
@@ -24343,7 +24343,7 @@
     </row>
     <row r="213" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B213" t="s">
         <v>264</v>
@@ -24409,7 +24409,7 @@
     </row>
     <row r="214" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B214" t="s">
         <v>62</v>
@@ -24475,7 +24475,7 @@
     </row>
     <row r="215" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B215" t="s">
         <v>62</v>
@@ -24541,7 +24541,7 @@
     </row>
     <row r="216" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B216" t="s">
         <v>62</v>
@@ -24607,7 +24607,7 @@
     </row>
     <row r="217" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B217" t="s">
         <v>62</v>
@@ -24673,7 +24673,7 @@
     </row>
     <row r="218" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B218" t="s">
         <v>62</v>
@@ -24739,7 +24739,7 @@
     </row>
     <row r="219" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B219" t="s">
         <v>62</v>
@@ -24805,7 +24805,7 @@
     </row>
     <row r="220" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B220" t="s">
         <v>62</v>
@@ -24871,7 +24871,7 @@
     </row>
     <row r="221" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B221" t="s">
         <v>62</v>
@@ -24937,7 +24937,7 @@
     </row>
     <row r="222" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B222" t="s">
         <v>62</v>
@@ -25003,7 +25003,7 @@
     </row>
     <row r="223" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B223" t="s">
         <v>62</v>
@@ -25069,7 +25069,7 @@
     </row>
     <row r="224" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B224" t="s">
         <v>62</v>
@@ -25135,7 +25135,7 @@
     </row>
     <row r="225" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B225" t="s">
         <v>62</v>
@@ -25201,7 +25201,7 @@
     </row>
     <row r="226" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B226" t="s">
         <v>264</v>
@@ -25267,7 +25267,7 @@
     </row>
     <row r="227" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B227" t="s">
         <v>264</v>
@@ -25333,7 +25333,7 @@
     </row>
     <row r="228" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B228" t="s">
         <v>264</v>
@@ -25399,7 +25399,7 @@
     </row>
     <row r="229" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B229" t="s">
         <v>264</v>
@@ -25465,7 +25465,7 @@
     </row>
     <row r="230" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B230" t="s">
         <v>264</v>
@@ -25531,7 +25531,7 @@
     </row>
     <row r="231" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B231" t="s">
         <v>264</v>
@@ -25597,7 +25597,7 @@
     </row>
     <row r="232" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B232" t="s">
         <v>264</v>
@@ -25663,7 +25663,7 @@
     </row>
     <row r="233" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B233" t="s">
         <v>264</v>
@@ -25729,7 +25729,7 @@
     </row>
     <row r="234" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B234" t="s">
         <v>264</v>
@@ -25795,7 +25795,7 @@
     </row>
     <row r="235" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B235" t="s">
         <v>264</v>
@@ -25861,7 +25861,7 @@
     </row>
     <row r="236" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B236" t="s">
         <v>264</v>
@@ -25927,7 +25927,7 @@
     </row>
     <row r="237" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B237" t="s">
         <v>264</v>
@@ -25993,7 +25993,7 @@
     </row>
     <row r="238" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B238" t="s">
         <v>264</v>
@@ -26059,7 +26059,7 @@
     </row>
     <row r="239" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B239" t="s">
         <v>264</v>
@@ -26125,7 +26125,7 @@
     </row>
     <row r="240" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B240" t="s">
         <v>264</v>
@@ -26191,7 +26191,7 @@
     </row>
     <row r="241" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B241" t="s">
         <v>264</v>
@@ -26257,7 +26257,7 @@
     </row>
     <row r="242" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B242" t="s">
         <v>264</v>
@@ -26323,7 +26323,7 @@
     </row>
     <row r="243" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B243" t="s">
         <v>264</v>
@@ -26389,7 +26389,7 @@
     </row>
     <row r="244" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B244" t="s">
         <v>45</v>
@@ -26455,7 +26455,7 @@
     </row>
     <row r="245" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B245" t="s">
         <v>45</v>
@@ -26521,7 +26521,7 @@
     </row>
     <row r="246" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B246" t="s">
         <v>45</v>
@@ -26587,7 +26587,7 @@
     </row>
     <row r="247" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B247" t="s">
         <v>45</v>
@@ -26653,7 +26653,7 @@
     </row>
     <row r="248" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B248" t="s">
         <v>45</v>
@@ -26719,7 +26719,7 @@
     </row>
     <row r="249" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B249" t="s">
         <v>45</v>
@@ -26785,7 +26785,7 @@
     </row>
     <row r="250" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B250" t="s">
         <v>45</v>
@@ -26851,7 +26851,7 @@
     </row>
     <row r="251" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B251" t="s">
         <v>45</v>
@@ -26917,7 +26917,7 @@
     </row>
     <row r="252" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B252" t="s">
         <v>462</v>
@@ -26983,7 +26983,7 @@
     </row>
     <row r="253" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B253" t="s">
         <v>462</v>
@@ -27049,7 +27049,7 @@
     </row>
     <row r="254" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B254" t="s">
         <v>462</v>
@@ -27115,16 +27115,16 @@
     </row>
     <row r="255" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B255" t="s">
         <v>462</v>
       </c>
       <c r="C255" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D255" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E255" s="3">
         <v>44585</v>
@@ -27184,7 +27184,7 @@
     </row>
     <row r="256" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B256" t="s">
         <v>462</v>
@@ -27250,7 +27250,7 @@
     </row>
     <row r="257" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B257" t="s">
         <v>462</v>
@@ -27316,7 +27316,7 @@
     </row>
     <row r="258" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B258" t="s">
         <v>462</v>
@@ -27382,16 +27382,16 @@
     </row>
     <row r="259" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B259" t="s">
         <v>462</v>
       </c>
       <c r="C259" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D259" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E259" s="3">
         <v>44585</v>
@@ -27451,7 +27451,7 @@
     </row>
     <row r="260" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B260" t="s">
         <v>462</v>
@@ -27517,7 +27517,7 @@
     </row>
     <row r="261" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B261" t="s">
         <v>462</v>
@@ -27583,16 +27583,16 @@
     </row>
     <row r="262" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B262" t="s">
         <v>462</v>
       </c>
       <c r="C262" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D262" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E262" s="3">
         <v>44585</v>
@@ -27652,7 +27652,7 @@
     </row>
     <row r="263" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B263" t="s">
         <v>462</v>
@@ -27718,7 +27718,7 @@
     </row>
     <row r="264" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B264" t="s">
         <v>462</v>
@@ -27784,7 +27784,7 @@
     </row>
     <row r="265" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B265" t="s">
         <v>462</v>
@@ -27850,7 +27850,7 @@
     </row>
     <row r="266" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B266" t="s">
         <v>462</v>
@@ -27916,7 +27916,7 @@
     </row>
     <row r="267" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B267" t="s">
         <v>462</v>
@@ -27982,16 +27982,16 @@
     </row>
     <row r="268" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B268" t="s">
         <v>462</v>
       </c>
       <c r="C268" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D268" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E268" s="3">
         <v>44585</v>
@@ -28051,7 +28051,7 @@
     </row>
     <row r="269" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B269" t="s">
         <v>462</v>
@@ -28117,7 +28117,7 @@
     </row>
     <row r="270" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B270" t="s">
         <v>462</v>
@@ -28183,7 +28183,7 @@
     </row>
     <row r="271" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B271" t="s">
         <v>462</v>
@@ -28249,7 +28249,7 @@
     </row>
     <row r="272" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B272" t="s">
         <v>506</v>
@@ -28307,7 +28307,7 @@
         <v>235</v>
       </c>
       <c r="U272" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V272" t="s">
         <v>426</v>
@@ -28315,7 +28315,7 @@
     </row>
     <row r="273" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B273" t="s">
         <v>506</v>
@@ -28373,7 +28373,7 @@
         <v>235</v>
       </c>
       <c r="U273" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V273" t="s">
         <v>426</v>
@@ -28381,16 +28381,16 @@
     </row>
     <row r="274" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B274" t="s">
         <v>506</v>
       </c>
       <c r="C274" t="s">
+        <v>558</v>
+      </c>
+      <c r="D274" t="s">
         <v>559</v>
-      </c>
-      <c r="D274" t="s">
-        <v>560</v>
       </c>
       <c r="E274" s="3">
         <v>44594</v>
@@ -28442,7 +28442,7 @@
         <v>235</v>
       </c>
       <c r="U274" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V274" t="s">
         <v>426</v>
@@ -28450,7 +28450,7 @@
     </row>
     <row r="275" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B275" t="s">
         <v>506</v>
@@ -28508,7 +28508,7 @@
         <v>235</v>
       </c>
       <c r="U275" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V275" t="s">
         <v>426</v>
@@ -28516,7 +28516,7 @@
     </row>
     <row r="276" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B276" t="s">
         <v>506</v>
@@ -28574,7 +28574,7 @@
         <v>235</v>
       </c>
       <c r="U276" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V276" t="s">
         <v>426</v>
@@ -28582,7 +28582,7 @@
     </row>
     <row r="277" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B277" t="s">
         <v>506</v>
@@ -28640,7 +28640,7 @@
         <v>235</v>
       </c>
       <c r="U277" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V277" t="s">
         <v>426</v>
@@ -28648,7 +28648,7 @@
     </row>
     <row r="278" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B278" t="s">
         <v>506</v>
@@ -28706,7 +28706,7 @@
         <v>235</v>
       </c>
       <c r="U278" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V278" t="s">
         <v>426</v>
@@ -28714,7 +28714,7 @@
     </row>
     <row r="279" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B279" t="s">
         <v>506</v>
@@ -28772,7 +28772,7 @@
         <v>235</v>
       </c>
       <c r="U279" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V279" t="s">
         <v>426</v>
@@ -28780,16 +28780,16 @@
     </row>
     <row r="280" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B280" t="s">
         <v>506</v>
       </c>
       <c r="C280" t="s">
+        <v>560</v>
+      </c>
+      <c r="D280" t="s">
         <v>561</v>
-      </c>
-      <c r="D280" t="s">
-        <v>562</v>
       </c>
       <c r="E280" s="3">
         <v>44594</v>
@@ -28841,7 +28841,7 @@
         <v>235</v>
       </c>
       <c r="U280" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V280" t="s">
         <v>426</v>
@@ -28849,7 +28849,7 @@
     </row>
     <row r="281" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B281" t="s">
         <v>506</v>
@@ -28907,7 +28907,7 @@
         <v>235</v>
       </c>
       <c r="U281" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V281" t="s">
         <v>426</v>
@@ -28915,7 +28915,7 @@
     </row>
     <row r="282" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B282" t="s">
         <v>506</v>
@@ -28973,7 +28973,7 @@
         <v>235</v>
       </c>
       <c r="U282" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V282" t="s">
         <v>426</v>
@@ -28981,16 +28981,16 @@
     </row>
     <row r="283" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B283" t="s">
         <v>506</v>
       </c>
       <c r="C283" t="s">
+        <v>562</v>
+      </c>
+      <c r="D283" t="s">
         <v>563</v>
-      </c>
-      <c r="D283" t="s">
-        <v>564</v>
       </c>
       <c r="E283" s="3">
         <v>44594</v>
@@ -29042,7 +29042,7 @@
         <v>235</v>
       </c>
       <c r="U283" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V283" t="s">
         <v>426</v>
@@ -29050,7 +29050,7 @@
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B284" t="s">
         <v>506</v>
@@ -29108,7 +29108,7 @@
         <v>235</v>
       </c>
       <c r="U284" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V284" t="s">
         <v>426</v>
@@ -29116,7 +29116,7 @@
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B285" t="s">
         <v>506</v>
@@ -29174,7 +29174,7 @@
         <v>235</v>
       </c>
       <c r="U285" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V285" t="s">
         <v>426</v>
@@ -29182,16 +29182,16 @@
     </row>
     <row r="286" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B286" t="s">
         <v>506</v>
       </c>
       <c r="C286" t="s">
+        <v>564</v>
+      </c>
+      <c r="D286" t="s">
         <v>565</v>
-      </c>
-      <c r="D286" t="s">
-        <v>566</v>
       </c>
       <c r="E286" s="3">
         <v>44594</v>
@@ -29243,7 +29243,7 @@
         <v>235</v>
       </c>
       <c r="U286" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V286" t="s">
         <v>426</v>
@@ -29251,7 +29251,7 @@
     </row>
     <row r="287" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B287" t="s">
         <v>506</v>
@@ -29309,7 +29309,7 @@
         <v>235</v>
       </c>
       <c r="U287" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V287" t="s">
         <v>426</v>
@@ -29317,7 +29317,7 @@
     </row>
     <row r="288" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B288" t="s">
         <v>506</v>
@@ -29375,7 +29375,7 @@
         <v>235</v>
       </c>
       <c r="U288" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V288" t="s">
         <v>426</v>
@@ -29383,7 +29383,7 @@
     </row>
     <row r="289" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B289" t="s">
         <v>506</v>
@@ -29441,7 +29441,7 @@
         <v>235</v>
       </c>
       <c r="U289" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V289" t="s">
         <v>426</v>
@@ -29449,7 +29449,7 @@
     </row>
     <row r="290" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B290" t="s">
         <v>514</v>
@@ -29507,7 +29507,7 @@
         <v>235</v>
       </c>
       <c r="U290" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V290" t="s">
         <v>425</v>
@@ -29515,7 +29515,7 @@
     </row>
     <row r="291" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B291" t="s">
         <v>514</v>
@@ -29573,7 +29573,7 @@
         <v>235</v>
       </c>
       <c r="U291" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V291" t="s">
         <v>425</v>
@@ -29581,16 +29581,16 @@
     </row>
     <row r="292" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B292" t="s">
         <v>514</v>
       </c>
       <c r="C292" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D292" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E292" s="3">
         <v>44594</v>
@@ -29642,7 +29642,7 @@
         <v>235</v>
       </c>
       <c r="U292" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V292" t="s">
         <v>425</v>
@@ -29650,7 +29650,7 @@
     </row>
     <row r="293" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B293" t="s">
         <v>514</v>
@@ -29708,7 +29708,7 @@
         <v>235</v>
       </c>
       <c r="U293" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V293" t="s">
         <v>425</v>
@@ -29716,7 +29716,7 @@
     </row>
     <row r="294" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B294" t="s">
         <v>514</v>
@@ -29774,7 +29774,7 @@
         <v>235</v>
       </c>
       <c r="U294" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V294" t="s">
         <v>425</v>
@@ -29782,16 +29782,16 @@
     </row>
     <row r="295" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B295" t="s">
         <v>514</v>
       </c>
       <c r="C295" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D295" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E295" s="3">
         <v>44594</v>
@@ -29843,7 +29843,7 @@
         <v>235</v>
       </c>
       <c r="U295" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V295" t="s">
         <v>425</v>
@@ -29851,7 +29851,7 @@
     </row>
     <row r="296" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B296" t="s">
         <v>514</v>
@@ -29909,7 +29909,7 @@
         <v>235</v>
       </c>
       <c r="U296" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V296" t="s">
         <v>425</v>
@@ -29917,7 +29917,7 @@
     </row>
     <row r="297" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B297" t="s">
         <v>514</v>
@@ -29975,7 +29975,7 @@
         <v>235</v>
       </c>
       <c r="U297" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V297" t="s">
         <v>425</v>
@@ -29983,16 +29983,16 @@
     </row>
     <row r="298" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B298" t="s">
         <v>514</v>
       </c>
       <c r="C298" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D298" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E298" s="3">
         <v>44594</v>
@@ -30044,7 +30044,7 @@
         <v>235</v>
       </c>
       <c r="U298" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V298" t="s">
         <v>425</v>
@@ -30052,7 +30052,7 @@
     </row>
     <row r="299" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B299" t="s">
         <v>514</v>
@@ -30110,7 +30110,7 @@
         <v>235</v>
       </c>
       <c r="U299" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V299" t="s">
         <v>425</v>
@@ -30118,16 +30118,16 @@
     </row>
     <row r="300" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B300" t="s">
         <v>514</v>
       </c>
       <c r="C300" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D300" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E300" s="3">
         <v>44594</v>
@@ -30176,7 +30176,7 @@
         <v>235</v>
       </c>
       <c r="U300" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V300" t="s">
         <v>425</v>
@@ -30184,16 +30184,16 @@
     </row>
     <row r="301" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B301" t="s">
         <v>514</v>
       </c>
       <c r="C301" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D301" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E301" s="3">
         <v>44594</v>
@@ -30242,7 +30242,7 @@
         <v>235</v>
       </c>
       <c r="U301" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V301" t="s">
         <v>425</v>
@@ -30250,16 +30250,16 @@
     </row>
     <row r="302" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B302" t="s">
         <v>514</v>
       </c>
       <c r="C302" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D302" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E302" s="3">
         <v>44594</v>
@@ -30308,7 +30308,7 @@
         <v>235</v>
       </c>
       <c r="U302" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V302" t="s">
         <v>425</v>
@@ -30316,16 +30316,16 @@
     </row>
     <row r="303" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B303" t="s">
         <v>514</v>
       </c>
       <c r="C303" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D303" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E303" s="3">
         <v>44594</v>
@@ -30377,7 +30377,7 @@
         <v>235</v>
       </c>
       <c r="U303" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V303" t="s">
         <v>425</v>
@@ -30385,16 +30385,16 @@
     </row>
     <row r="304" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B304" t="s">
         <v>514</v>
       </c>
       <c r="C304" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D304" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E304" s="3">
         <v>44594</v>
@@ -30440,7 +30440,7 @@
         <v>235</v>
       </c>
       <c r="U304" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V304" t="s">
         <v>425</v>
@@ -30448,16 +30448,16 @@
     </row>
     <row r="305" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B305" t="s">
         <v>514</v>
       </c>
       <c r="C305" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D305" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E305" s="3">
         <v>44594</v>
@@ -30503,7 +30503,7 @@
         <v>235</v>
       </c>
       <c r="U305" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V305" t="s">
         <v>425</v>
@@ -30511,16 +30511,16 @@
     </row>
     <row r="306" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B306" t="s">
         <v>514</v>
       </c>
       <c r="C306" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D306" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E306" s="3">
         <v>44594</v>
@@ -30569,7 +30569,7 @@
         <v>235</v>
       </c>
       <c r="U306" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V306" t="s">
         <v>425</v>
@@ -30577,16 +30577,16 @@
     </row>
     <row r="307" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B307" t="s">
         <v>514</v>
       </c>
       <c r="C307" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D307" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E307" s="3">
         <v>44594</v>
@@ -30635,7 +30635,7 @@
         <v>235</v>
       </c>
       <c r="U307" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V307" t="s">
         <v>425</v>
@@ -30643,7 +30643,7 @@
     </row>
     <row r="308" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B308" t="s">
         <v>532</v>
@@ -30702,7 +30702,7 @@
         <v>235</v>
       </c>
       <c r="U308" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V308" t="s">
         <v>425</v>
@@ -30710,7 +30710,7 @@
     </row>
     <row r="309" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B309" t="s">
         <v>532</v>
@@ -30769,7 +30769,7 @@
         <v>235</v>
       </c>
       <c r="U309" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V309" t="s">
         <v>425</v>
@@ -30777,7 +30777,7 @@
     </row>
     <row r="310" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B310" t="s">
         <v>532</v>
@@ -30836,7 +30836,7 @@
         <v>235</v>
       </c>
       <c r="U310" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V310" t="s">
         <v>425</v>
@@ -30844,7 +30844,7 @@
     </row>
     <row r="311" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B311" t="s">
         <v>532</v>
@@ -30903,7 +30903,7 @@
         <v>235</v>
       </c>
       <c r="U311" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V311" t="s">
         <v>425</v>
@@ -30911,16 +30911,16 @@
     </row>
     <row r="312" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B312" t="s">
         <v>532</v>
       </c>
       <c r="C312" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D312" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E312" s="3">
         <v>44600</v>
@@ -30973,7 +30973,7 @@
         <v>235</v>
       </c>
       <c r="U312" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V312" t="s">
         <v>425</v>
@@ -30981,7 +30981,7 @@
     </row>
     <row r="313" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B313" t="s">
         <v>532</v>
@@ -31040,7 +31040,7 @@
         <v>235</v>
       </c>
       <c r="U313" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V313" t="s">
         <v>425</v>
@@ -31048,7 +31048,7 @@
     </row>
     <row r="314" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B314" t="s">
         <v>532</v>
@@ -31107,7 +31107,7 @@
         <v>235</v>
       </c>
       <c r="U314" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V314" t="s">
         <v>425</v>
@@ -31115,7 +31115,7 @@
     </row>
     <row r="315" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B315" t="s">
         <v>532</v>
@@ -31174,7 +31174,7 @@
         <v>235</v>
       </c>
       <c r="U315" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V315" t="s">
         <v>425</v>
@@ -31182,16 +31182,16 @@
     </row>
     <row r="316" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B316" t="s">
         <v>532</v>
       </c>
       <c r="C316" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D316" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E316" s="3">
         <v>44600</v>
@@ -31244,7 +31244,7 @@
         <v>235</v>
       </c>
       <c r="U316" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V316" t="s">
         <v>425</v>
@@ -31252,16 +31252,16 @@
     </row>
     <row r="317" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B317" t="s">
         <v>532</v>
       </c>
       <c r="C317" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D317" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E317" s="3">
         <v>44600</v>
@@ -31310,7 +31310,7 @@
         <v>235</v>
       </c>
       <c r="U317" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V317" t="s">
         <v>425</v>
@@ -31318,16 +31318,16 @@
     </row>
     <row r="318" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B318" t="s">
         <v>532</v>
       </c>
       <c r="C318" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D318" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E318" s="3">
         <v>44600</v>
@@ -31376,7 +31376,7 @@
         <v>235</v>
       </c>
       <c r="U318" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V318" t="s">
         <v>425</v>
@@ -31384,16 +31384,16 @@
     </row>
     <row r="319" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B319" t="s">
         <v>532</v>
       </c>
       <c r="C319" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D319" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E319" s="3">
         <v>44600</v>
@@ -31442,7 +31442,7 @@
         <v>235</v>
       </c>
       <c r="U319" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V319" t="s">
         <v>425</v>
@@ -31450,7 +31450,7 @@
     </row>
     <row r="320" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B320" t="s">
         <v>532</v>
@@ -31508,7 +31508,7 @@
         <v>235</v>
       </c>
       <c r="U320" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V320" t="s">
         <v>425</v>
@@ -31516,7 +31516,7 @@
     </row>
     <row r="321" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B321" t="s">
         <v>532</v>
@@ -31574,7 +31574,7 @@
         <v>235</v>
       </c>
       <c r="U321" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V321" t="s">
         <v>425</v>
@@ -31582,16 +31582,16 @@
     </row>
     <row r="322" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B322" t="s">
         <v>532</v>
       </c>
       <c r="C322" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D322" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E322" s="3">
         <v>44600</v>
@@ -31643,7 +31643,7 @@
         <v>235</v>
       </c>
       <c r="U322" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V322" t="s">
         <v>425</v>
@@ -31651,7 +31651,7 @@
     </row>
     <row r="323" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B323" t="s">
         <v>532</v>
@@ -31710,7 +31710,7 @@
         <v>235</v>
       </c>
       <c r="U323" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V323" t="s">
         <v>425</v>
@@ -31718,7 +31718,7 @@
     </row>
     <row r="324" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B324" t="s">
         <v>532</v>
@@ -31777,7 +31777,7 @@
         <v>235</v>
       </c>
       <c r="U324" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V324" t="s">
         <v>425</v>
@@ -31785,7 +31785,7 @@
     </row>
     <row r="325" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B325" t="s">
         <v>532</v>
@@ -31844,7 +31844,7 @@
         <v>235</v>
       </c>
       <c r="U325" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V325" t="s">
         <v>425</v>
@@ -31852,16 +31852,16 @@
     </row>
     <row r="326" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B326" t="s">
         <v>532</v>
       </c>
       <c r="C326" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D326" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E326" s="3">
         <v>44600</v>
@@ -31914,7 +31914,7 @@
         <v>235</v>
       </c>
       <c r="U326" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V326" t="s">
         <v>425</v>
@@ -31922,16 +31922,16 @@
     </row>
     <row r="327" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B327" t="s">
         <v>532</v>
       </c>
       <c r="C327" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D327" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E327" s="3">
         <v>44600</v>
@@ -31980,7 +31980,7 @@
         <v>235</v>
       </c>
       <c r="U327" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V327" t="s">
         <v>425</v>
@@ -31988,16 +31988,16 @@
     </row>
     <row r="328" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B328" t="s">
         <v>532</v>
       </c>
       <c r="C328" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D328" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E328" s="3">
         <v>44600</v>
@@ -32046,7 +32046,7 @@
         <v>235</v>
       </c>
       <c r="U328" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V328" t="s">
         <v>425</v>
@@ -32054,16 +32054,16 @@
     </row>
     <row r="329" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B329" t="s">
         <v>532</v>
       </c>
       <c r="C329" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D329" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E329" s="3">
         <v>44600</v>
@@ -32115,7 +32115,7 @@
         <v>235</v>
       </c>
       <c r="U329" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V329" t="s">
         <v>425</v>
@@ -32123,16 +32123,16 @@
     </row>
     <row r="330" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B330" t="s">
         <v>532</v>
       </c>
       <c r="C330" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D330" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E330" s="3">
         <v>44600</v>
@@ -32178,7 +32178,7 @@
         <v>235</v>
       </c>
       <c r="U330" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V330" t="s">
         <v>425</v>
@@ -32186,16 +32186,16 @@
     </row>
     <row r="331" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B331" t="s">
         <v>532</v>
       </c>
       <c r="C331" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D331" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E331" s="3">
         <v>44600</v>
@@ -32241,7 +32241,7 @@
         <v>235</v>
       </c>
       <c r="U331" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V331" t="s">
         <v>425</v>
@@ -32249,16 +32249,16 @@
     </row>
     <row r="332" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B332" t="s">
         <v>532</v>
       </c>
       <c r="C332" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D332" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E332" s="3">
         <v>44600</v>
@@ -32307,7 +32307,7 @@
         <v>235</v>
       </c>
       <c r="U332" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V332" t="s">
         <v>425</v>
@@ -32315,16 +32315,16 @@
     </row>
     <row r="333" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B333" t="s">
         <v>532</v>
       </c>
       <c r="C333" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D333" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E333" s="3">
         <v>44600</v>
@@ -32373,7 +32373,7 @@
         <v>235</v>
       </c>
       <c r="U333" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V333" t="s">
         <v>425</v>
@@ -32381,16 +32381,16 @@
     </row>
     <row r="334" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B334" t="s">
         <v>532</v>
       </c>
       <c r="C334" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D334" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E334" s="3">
         <v>44600</v>
@@ -32439,7 +32439,7 @@
         <v>235</v>
       </c>
       <c r="U334" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V334" t="s">
         <v>425</v>
@@ -32447,16 +32447,16 @@
     </row>
     <row r="335" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B335" t="s">
         <v>532</v>
       </c>
       <c r="C335" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D335" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E335" s="3">
         <v>44600</v>
@@ -32505,7 +32505,7 @@
         <v>235</v>
       </c>
       <c r="U335" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V335" t="s">
         <v>425</v>
@@ -32513,16 +32513,16 @@
     </row>
     <row r="336" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B336" t="s">
         <v>532</v>
       </c>
       <c r="C336" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D336" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E336" s="3">
         <v>44600</v>
@@ -32571,7 +32571,7 @@
         <v>235</v>
       </c>
       <c r="U336" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V336" t="s">
         <v>425</v>
@@ -32579,7 +32579,7 @@
     </row>
     <row r="337" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B337" t="s">
         <v>532</v>
@@ -32637,7 +32637,7 @@
         <v>235</v>
       </c>
       <c r="U337" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V337" t="s">
         <v>425</v>
@@ -32645,7 +32645,7 @@
     </row>
     <row r="338" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B338" t="s">
         <v>532</v>
@@ -32703,7 +32703,7 @@
         <v>235</v>
       </c>
       <c r="U338" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V338" t="s">
         <v>425</v>
@@ -32711,7 +32711,7 @@
     </row>
     <row r="339" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B339" t="s">
         <v>532</v>
@@ -32769,7 +32769,7 @@
         <v>235</v>
       </c>
       <c r="U339" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V339" t="s">
         <v>425</v>
@@ -32777,16 +32777,16 @@
     </row>
     <row r="340" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B340" t="s">
         <v>532</v>
       </c>
       <c r="C340" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D340" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E340" s="3">
         <v>44600</v>
@@ -32838,7 +32838,7 @@
         <v>235</v>
       </c>
       <c r="U340" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V340" t="s">
         <v>425</v>
@@ -32846,7 +32846,7 @@
     </row>
     <row r="341" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B341" t="s">
         <v>532</v>
@@ -32904,7 +32904,7 @@
         <v>235</v>
       </c>
       <c r="U341" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V341" t="s">
         <v>425</v>
@@ -32912,7 +32912,7 @@
     </row>
     <row r="342" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B342" t="s">
         <v>532</v>
@@ -32970,7 +32970,7 @@
         <v>235</v>
       </c>
       <c r="U342" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V342" t="s">
         <v>425</v>
@@ -32978,16 +32978,16 @@
     </row>
     <row r="343" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B343" t="s">
         <v>532</v>
       </c>
       <c r="C343" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D343" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E343" s="3">
         <v>44600</v>
@@ -33039,7 +33039,7 @@
         <v>235</v>
       </c>
       <c r="U343" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V343" t="s">
         <v>425</v>
@@ -33047,7 +33047,7 @@
     </row>
     <row r="344" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B344" t="s">
         <v>545</v>
@@ -33105,7 +33105,7 @@
         <v>235</v>
       </c>
       <c r="U344" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V344" t="s">
         <v>425</v>
@@ -33113,7 +33113,7 @@
     </row>
     <row r="345" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B345" t="s">
         <v>545</v>
@@ -33171,7 +33171,7 @@
         <v>235</v>
       </c>
       <c r="U345" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V345" t="s">
         <v>425</v>
@@ -33179,7 +33179,7 @@
     </row>
     <row r="346" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B346" t="s">
         <v>545</v>
@@ -33237,7 +33237,7 @@
         <v>235</v>
       </c>
       <c r="U346" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V346" t="s">
         <v>425</v>
@@ -33245,16 +33245,16 @@
     </row>
     <row r="347" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B347" t="s">
         <v>545</v>
       </c>
       <c r="C347" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D347" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E347" s="3">
         <v>44607</v>
@@ -33306,7 +33306,7 @@
         <v>235</v>
       </c>
       <c r="U347" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V347" t="s">
         <v>425</v>
@@ -33314,7 +33314,7 @@
     </row>
     <row r="348" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B348" t="s">
         <v>545</v>
@@ -33372,7 +33372,7 @@
         <v>235</v>
       </c>
       <c r="U348" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V348" t="s">
         <v>425</v>
@@ -33380,7 +33380,7 @@
     </row>
     <row r="349" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B349" t="s">
         <v>545</v>
@@ -33438,7 +33438,7 @@
         <v>235</v>
       </c>
       <c r="U349" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V349" t="s">
         <v>425</v>
@@ -33446,7 +33446,7 @@
     </row>
     <row r="350" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B350" t="s">
         <v>545</v>
@@ -33504,7 +33504,7 @@
         <v>235</v>
       </c>
       <c r="U350" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V350" t="s">
         <v>425</v>
@@ -33512,7 +33512,7 @@
     </row>
     <row r="351" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B351" t="s">
         <v>545</v>
@@ -33570,7 +33570,7 @@
         <v>235</v>
       </c>
       <c r="U351" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V351" t="s">
         <v>425</v>
@@ -33578,7 +33578,7 @@
     </row>
     <row r="352" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B352" t="s">
         <v>545</v>
@@ -33636,7 +33636,7 @@
         <v>235</v>
       </c>
       <c r="U352" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V352" t="s">
         <v>425</v>
@@ -33644,16 +33644,16 @@
     </row>
     <row r="353" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B353" t="s">
         <v>545</v>
       </c>
       <c r="C353" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D353" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E353" s="3">
         <v>44607</v>
@@ -33705,7 +33705,7 @@
         <v>235</v>
       </c>
       <c r="U353" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V353" t="s">
         <v>425</v>
@@ -33713,7 +33713,7 @@
     </row>
     <row r="354" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B354" t="s">
         <v>545</v>
@@ -33771,7 +33771,7 @@
         <v>235</v>
       </c>
       <c r="U354" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V354" t="s">
         <v>425</v>
@@ -33779,7 +33779,7 @@
     </row>
     <row r="355" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B355" t="s">
         <v>545</v>
@@ -33837,7 +33837,7 @@
         <v>235</v>
       </c>
       <c r="U355" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V355" t="s">
         <v>425</v>
@@ -33845,7 +33845,7 @@
     </row>
     <row r="356" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B356" t="s">
         <v>545</v>
@@ -33903,7 +33903,7 @@
         <v>235</v>
       </c>
       <c r="U356" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V356" t="s">
         <v>425</v>
@@ -33911,7 +33911,7 @@
     </row>
     <row r="357" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B357" t="s">
         <v>545</v>
@@ -33969,7 +33969,7 @@
         <v>235</v>
       </c>
       <c r="U357" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V357" t="s">
         <v>425</v>
@@ -33977,16 +33977,16 @@
     </row>
     <row r="358" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B358" t="s">
         <v>545</v>
       </c>
       <c r="C358" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D358" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E358" s="3">
         <v>44607</v>
@@ -34035,7 +34035,7 @@
         <v>235</v>
       </c>
       <c r="U358" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V358" t="s">
         <v>425</v>
@@ -34043,16 +34043,16 @@
     </row>
     <row r="359" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B359" t="s">
         <v>545</v>
       </c>
       <c r="C359" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D359" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E359" s="3">
         <v>44607</v>
@@ -34101,7 +34101,7 @@
         <v>235</v>
       </c>
       <c r="U359" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V359" t="s">
         <v>425</v>
@@ -34109,16 +34109,16 @@
     </row>
     <row r="360" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B360" t="s">
         <v>545</v>
       </c>
       <c r="C360" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D360" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E360" s="3">
         <v>44607</v>
@@ -34170,7 +34170,7 @@
         <v>235</v>
       </c>
       <c r="U360" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V360" t="s">
         <v>425</v>
@@ -34178,16 +34178,16 @@
     </row>
     <row r="361" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B361" t="s">
         <v>545</v>
       </c>
       <c r="C361" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D361" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E361" s="3">
         <v>44607</v>
@@ -34236,7 +34236,7 @@
         <v>235</v>
       </c>
       <c r="U361" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V361" t="s">
         <v>425</v>
@@ -34244,16 +34244,16 @@
     </row>
     <row r="362" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B362" t="s">
         <v>545</v>
       </c>
       <c r="C362" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D362" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E362" s="3">
         <v>44607</v>
@@ -34302,7 +34302,7 @@
         <v>235</v>
       </c>
       <c r="U362" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V362" t="s">
         <v>425</v>
@@ -34310,16 +34310,16 @@
     </row>
     <row r="363" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B363" t="s">
         <v>545</v>
       </c>
       <c r="C363" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D363" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E363" s="3">
         <v>44607</v>
@@ -34371,7 +34371,7 @@
         <v>235</v>
       </c>
       <c r="U363" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V363" t="s">
         <v>425</v>
@@ -34379,16 +34379,16 @@
     </row>
     <row r="364" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B364" t="s">
         <v>545</v>
       </c>
       <c r="C364" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D364" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E364" s="3">
         <v>44607</v>
@@ -34437,7 +34437,7 @@
         <v>235</v>
       </c>
       <c r="U364" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V364" t="s">
         <v>425</v>
@@ -34445,16 +34445,16 @@
     </row>
     <row r="365" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B365" t="s">
         <v>545</v>
       </c>
       <c r="C365" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D365" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E365" s="3">
         <v>44607</v>
@@ -34503,7 +34503,7 @@
         <v>235</v>
       </c>
       <c r="U365" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V365" t="s">
         <v>425</v>
@@ -34511,16 +34511,16 @@
     </row>
     <row r="366" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B366" t="s">
         <v>545</v>
       </c>
       <c r="C366" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D366" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E366" s="3">
         <v>44607</v>
@@ -34572,7 +34572,7 @@
         <v>235</v>
       </c>
       <c r="U366" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V366" t="s">
         <v>425</v>
@@ -34580,16 +34580,16 @@
     </row>
     <row r="367" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B367" t="s">
         <v>545</v>
       </c>
       <c r="C367" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D367" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E367" s="3">
         <v>44607</v>
@@ -34638,7 +34638,7 @@
         <v>235</v>
       </c>
       <c r="U367" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V367" t="s">
         <v>425</v>
@@ -34646,16 +34646,16 @@
     </row>
     <row r="368" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B368" t="s">
         <v>545</v>
       </c>
       <c r="C368" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D368" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E368" s="3">
         <v>44607</v>
@@ -34704,7 +34704,7 @@
         <v>235</v>
       </c>
       <c r="U368" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V368" t="s">
         <v>425</v>
@@ -34712,16 +34712,16 @@
     </row>
     <row r="369" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B369" t="s">
         <v>545</v>
       </c>
       <c r="C369" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D369" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E369" s="3">
         <v>44607</v>
@@ -34773,7 +34773,7 @@
         <v>235</v>
       </c>
       <c r="U369" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V369" t="s">
         <v>425</v>
@@ -34781,16 +34781,16 @@
     </row>
     <row r="370" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B370" t="s">
         <v>545</v>
       </c>
       <c r="C370" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D370" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E370" s="3">
         <v>44607</v>
@@ -34839,7 +34839,7 @@
         <v>235</v>
       </c>
       <c r="U370" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V370" t="s">
         <v>425</v>
@@ -34847,7 +34847,7 @@
     </row>
     <row r="371" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B371" t="s">
         <v>547</v>
@@ -34913,7 +34913,7 @@
     </row>
     <row r="372" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B372" t="s">
         <v>547</v>
@@ -34979,7 +34979,7 @@
     </row>
     <row r="373" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B373" t="s">
         <v>547</v>
@@ -35045,7 +35045,7 @@
     </row>
     <row r="374" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B374" t="s">
         <v>547</v>
@@ -35111,7 +35111,7 @@
     </row>
     <row r="375" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B375" t="s">
         <v>547</v>
@@ -35177,7 +35177,7 @@
     </row>
     <row r="376" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B376" t="s">
         <v>547</v>
@@ -35240,7 +35240,7 @@
     </row>
     <row r="377" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B377" t="s">
         <v>547</v>
@@ -35306,7 +35306,7 @@
     </row>
     <row r="378" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B378" t="s">
         <v>547</v>
@@ -35372,7 +35372,7 @@
     </row>
     <row r="379" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B379" t="s">
         <v>547</v>
@@ -35438,7 +35438,7 @@
     </row>
     <row r="380" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B380" t="s">
         <v>547</v>
@@ -35504,16 +35504,16 @@
     </row>
     <row r="381" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B381" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C381" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D381" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E381" s="3">
         <v>44624</v>
@@ -35562,7 +35562,7 @@
         <v>235</v>
       </c>
       <c r="U381" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V381" t="s">
         <v>426</v>
@@ -35570,16 +35570,16 @@
     </row>
     <row r="382" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B382" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C382" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D382" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E382" s="3">
         <v>44624</v>
@@ -35628,7 +35628,7 @@
         <v>235</v>
       </c>
       <c r="U382" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V382" t="s">
         <v>426</v>
@@ -35636,16 +35636,16 @@
     </row>
     <row r="383" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B383" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C383" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D383" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E383" s="3">
         <v>44624</v>
@@ -35694,7 +35694,7 @@
         <v>235</v>
       </c>
       <c r="U383" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V383" t="s">
         <v>426</v>
@@ -35702,16 +35702,16 @@
     </row>
     <row r="384" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B384" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C384" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D384" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E384" s="3">
         <v>44624</v>
@@ -35763,7 +35763,7 @@
         <v>235</v>
       </c>
       <c r="U384" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V384" t="s">
         <v>426</v>
@@ -35771,16 +35771,16 @@
     </row>
     <row r="385" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B385" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C385" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D385" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E385" s="3">
         <v>44624</v>
@@ -35830,7 +35830,7 @@
         <v>235</v>
       </c>
       <c r="U385" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V385" t="s">
         <v>426</v>
@@ -35838,16 +35838,16 @@
     </row>
     <row r="386" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B386" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C386" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D386" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E386" s="3">
         <v>44624</v>
@@ -35897,7 +35897,7 @@
         <v>235</v>
       </c>
       <c r="U386" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V386" t="s">
         <v>426</v>
@@ -35905,16 +35905,16 @@
     </row>
     <row r="387" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B387" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C387" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D387" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E387" s="3">
         <v>44624</v>
@@ -35964,7 +35964,7 @@
         <v>235</v>
       </c>
       <c r="U387" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V387" t="s">
         <v>426</v>
@@ -35972,16 +35972,16 @@
     </row>
     <row r="388" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B388" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C388" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D388" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E388" s="3">
         <v>44624</v>
@@ -36031,7 +36031,7 @@
         <v>235</v>
       </c>
       <c r="U388" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V388" t="s">
         <v>426</v>
@@ -36039,16 +36039,16 @@
     </row>
     <row r="389" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B389" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C389" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D389" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E389" s="3">
         <v>44624</v>
@@ -36098,7 +36098,7 @@
         <v>235</v>
       </c>
       <c r="U389" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V389" t="s">
         <v>426</v>
@@ -36106,16 +36106,16 @@
     </row>
     <row r="390" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B390" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C390" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D390" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E390" s="3">
         <v>44624</v>
@@ -36168,7 +36168,7 @@
         <v>235</v>
       </c>
       <c r="U390" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V390" t="s">
         <v>426</v>
@@ -36176,16 +36176,16 @@
     </row>
     <row r="391" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B391" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C391" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D391" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E391" s="3">
         <v>44624</v>
@@ -36234,7 +36234,7 @@
         <v>235</v>
       </c>
       <c r="U391" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V391" t="s">
         <v>426</v>
@@ -36242,16 +36242,16 @@
     </row>
     <row r="392" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B392" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C392" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D392" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E392" s="3">
         <v>44624</v>
@@ -36300,7 +36300,7 @@
         <v>235</v>
       </c>
       <c r="U392" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V392" t="s">
         <v>426</v>
@@ -36308,16 +36308,16 @@
     </row>
     <row r="393" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B393" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C393" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D393" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E393" s="3">
         <v>44624</v>
@@ -36369,7 +36369,7 @@
         <v>235</v>
       </c>
       <c r="U393" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V393" t="s">
         <v>426</v>
@@ -36377,16 +36377,16 @@
     </row>
     <row r="394" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B394" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C394" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D394" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E394" s="3">
         <v>44624</v>
@@ -36435,7 +36435,7 @@
         <v>235</v>
       </c>
       <c r="U394" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V394" t="s">
         <v>426</v>
@@ -36443,16 +36443,16 @@
     </row>
     <row r="395" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B395" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C395" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D395" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E395" s="3">
         <v>44624</v>
@@ -36501,7 +36501,7 @@
         <v>235</v>
       </c>
       <c r="U395" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V395" t="s">
         <v>426</v>
@@ -36509,16 +36509,16 @@
     </row>
     <row r="396" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B396" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C396" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D396" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E396" s="3">
         <v>44624</v>
@@ -36570,7 +36570,7 @@
         <v>235</v>
       </c>
       <c r="U396" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V396" t="s">
         <v>426</v>
@@ -36578,16 +36578,16 @@
     </row>
     <row r="397" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B397" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C397" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D397" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E397" s="3">
         <v>44624</v>
@@ -36636,7 +36636,7 @@
         <v>235</v>
       </c>
       <c r="U397" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V397" t="s">
         <v>426</v>
@@ -36644,16 +36644,16 @@
     </row>
     <row r="398" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B398" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C398" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D398" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E398" s="3">
         <v>44624</v>
@@ -36702,7 +36702,7 @@
         <v>235</v>
       </c>
       <c r="U398" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V398" t="s">
         <v>426</v>
@@ -36710,16 +36710,16 @@
     </row>
     <row r="399" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B399" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C399" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D399" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E399" s="3">
         <v>44624</v>
@@ -36768,7 +36768,7 @@
         <v>235</v>
       </c>
       <c r="U399" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V399" t="s">
         <v>426</v>
@@ -36776,16 +36776,16 @@
     </row>
     <row r="400" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B400" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C400" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D400" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E400" s="3">
         <v>44624</v>
@@ -36837,7 +36837,7 @@
         <v>235</v>
       </c>
       <c r="U400" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V400" t="s">
         <v>426</v>
@@ -36845,16 +36845,16 @@
     </row>
     <row r="401" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B401" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C401" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D401" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E401" s="3">
         <v>44624</v>
@@ -36903,7 +36903,7 @@
         <v>235</v>
       </c>
       <c r="U401" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V401" t="s">
         <v>426</v>
@@ -36911,16 +36911,16 @@
     </row>
     <row r="402" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B402" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C402" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D402" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E402" s="3">
         <v>44624</v>
@@ -36969,7 +36969,7 @@
         <v>235</v>
       </c>
       <c r="U402" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V402" t="s">
         <v>426</v>
@@ -36977,16 +36977,16 @@
     </row>
     <row r="403" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B403" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C403" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D403" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E403" s="3">
         <v>44624</v>
@@ -37035,7 +37035,7 @@
         <v>235</v>
       </c>
       <c r="U403" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V403" t="s">
         <v>426</v>
@@ -37043,16 +37043,16 @@
     </row>
     <row r="404" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B404" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C404" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D404" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E404" s="3">
         <v>44624</v>
@@ -37101,7 +37101,7 @@
         <v>235</v>
       </c>
       <c r="U404" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V404" t="s">
         <v>426</v>
@@ -37109,16 +37109,16 @@
     </row>
     <row r="405" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B405" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C405" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D405" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E405" s="3">
         <v>44624</v>
@@ -37170,7 +37170,7 @@
         <v>235</v>
       </c>
       <c r="U405" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V405" t="s">
         <v>426</v>
@@ -37178,16 +37178,16 @@
     </row>
     <row r="406" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B406" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C406" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D406" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E406" s="3">
         <v>44624</v>
@@ -37236,7 +37236,7 @@
         <v>235</v>
       </c>
       <c r="U406" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V406" t="s">
         <v>426</v>
@@ -37244,16 +37244,16 @@
     </row>
     <row r="407" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B407" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C407" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D407" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E407" s="3">
         <v>44624</v>
@@ -37302,7 +37302,7 @@
         <v>235</v>
       </c>
       <c r="U407" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V407" t="s">
         <v>426</v>
@@ -37310,16 +37310,16 @@
     </row>
     <row r="408" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B408" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C408" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D408" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E408" s="3">
         <v>44624</v>
@@ -37371,7 +37371,7 @@
         <v>235</v>
       </c>
       <c r="U408" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V408" t="s">
         <v>426</v>
@@ -37379,16 +37379,16 @@
     </row>
     <row r="409" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B409" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C409" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D409" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E409" s="3">
         <v>44624</v>
@@ -37437,7 +37437,7 @@
         <v>235</v>
       </c>
       <c r="U409" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V409" t="s">
         <v>426</v>
@@ -37445,16 +37445,16 @@
     </row>
     <row r="410" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B410" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C410" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D410" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E410" s="3">
         <v>44642</v>
@@ -37511,16 +37511,16 @@
     </row>
     <row r="411" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B411" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C411" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D411" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E411" s="3">
         <v>44642</v>
@@ -37574,16 +37574,16 @@
     </row>
     <row r="412" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B412" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C412" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D412" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E412" s="3">
         <v>44642</v>
@@ -37634,16 +37634,16 @@
     </row>
     <row r="413" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B413" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C413" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D413" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E413" s="3">
         <v>44642</v>
@@ -37692,7 +37692,7 @@
         <v>235</v>
       </c>
       <c r="U413" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V413" t="s">
         <v>426</v>
@@ -37700,16 +37700,16 @@
     </row>
     <row r="414" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B414" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C414" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D414" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E414" s="3">
         <v>44642</v>
@@ -37766,16 +37766,16 @@
     </row>
     <row r="415" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B415" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C415" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D415" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E415" s="3">
         <v>44642</v>
@@ -37832,16 +37832,16 @@
     </row>
     <row r="416" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B416" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C416" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D416" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E416" s="3">
         <v>44642</v>
@@ -37898,16 +37898,16 @@
     </row>
     <row r="417" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B417" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C417" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D417" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E417" s="3">
         <v>44642</v>
@@ -37964,16 +37964,16 @@
     </row>
     <row r="418" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B418" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C418" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D418" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E418" s="3">
         <v>44642</v>
@@ -38030,16 +38030,16 @@
     </row>
     <row r="419" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B419" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C419" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D419" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E419" s="3">
         <v>44642</v>
@@ -38093,16 +38093,16 @@
     </row>
     <row r="420" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B420" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C420" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D420" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E420" s="3">
         <v>44642</v>
@@ -38159,16 +38159,16 @@
     </row>
     <row r="421" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B421" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C421" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D421" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E421" s="3">
         <v>44642</v>
@@ -38225,16 +38225,16 @@
     </row>
     <row r="422" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B422" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C422" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D422" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E422" s="3">
         <v>44642</v>
@@ -38291,16 +38291,16 @@
     </row>
     <row r="423" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B423" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C423" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D423" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E423" s="3">
         <v>44642</v>
@@ -38357,16 +38357,16 @@
     </row>
     <row r="424" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B424" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C424" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D424" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E424" s="3">
         <v>44642</v>
@@ -38423,16 +38423,16 @@
     </row>
     <row r="425" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B425" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C425" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D425" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E425" s="3">
         <v>44642</v>
@@ -38489,16 +38489,16 @@
     </row>
     <row r="426" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B426" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C426" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D426" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E426" s="3">
         <v>44642</v>
@@ -38555,16 +38555,16 @@
     </row>
     <row r="427" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B427" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C427" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D427" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E427" s="3">
         <v>44642</v>
@@ -38621,16 +38621,16 @@
     </row>
     <row r="428" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B428" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C428" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D428" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E428" s="3">
         <v>44642</v>
@@ -38687,16 +38687,16 @@
     </row>
     <row r="429" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B429" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C429" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D429" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E429" s="3">
         <v>44680</v>
@@ -38745,7 +38745,7 @@
         <v>235</v>
       </c>
       <c r="U429" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V429" t="s">
         <v>426</v>
@@ -38753,16 +38753,16 @@
     </row>
     <row r="430" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B430" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C430" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D430" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E430" s="3">
         <v>44680</v>
@@ -38811,7 +38811,7 @@
         <v>235</v>
       </c>
       <c r="U430" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V430" t="s">
         <v>426</v>
@@ -38819,16 +38819,16 @@
     </row>
     <row r="431" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B431" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C431" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D431" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E431" s="3">
         <v>44680</v>
@@ -38877,7 +38877,7 @@
         <v>235</v>
       </c>
       <c r="U431" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V431" t="s">
         <v>426</v>
@@ -38885,16 +38885,16 @@
     </row>
     <row r="432" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B432" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C432" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D432" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E432" s="3">
         <v>44680</v>
@@ -38943,7 +38943,7 @@
         <v>235</v>
       </c>
       <c r="U432" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V432" t="s">
         <v>426</v>
@@ -38951,16 +38951,16 @@
     </row>
     <row r="433" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B433" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C433" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D433" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E433" s="3">
         <v>44680</v>
@@ -39009,7 +39009,7 @@
         <v>235</v>
       </c>
       <c r="U433" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V433" t="s">
         <v>426</v>
@@ -39017,16 +39017,16 @@
     </row>
     <row r="434" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A434" s="19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B434" s="19" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C434" s="19" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D434" s="19" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E434" s="20">
         <v>44680</v>
@@ -39072,10 +39072,10 @@
         <v>235</v>
       </c>
       <c r="T434" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="U434" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V434" s="19" t="s">
         <v>426</v>
@@ -39083,16 +39083,16 @@
     </row>
     <row r="435" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B435" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C435" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D435" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E435" s="3">
         <v>44680</v>
@@ -39141,7 +39141,7 @@
         <v>235</v>
       </c>
       <c r="U435" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V435" t="s">
         <v>426</v>
@@ -39149,16 +39149,16 @@
     </row>
     <row r="436" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B436" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C436" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D436" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E436" s="3">
         <v>44680</v>
@@ -39207,7 +39207,7 @@
         <v>235</v>
       </c>
       <c r="U436" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V436" t="s">
         <v>426</v>
@@ -39215,16 +39215,16 @@
     </row>
     <row r="437" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B437" t="s">
+        <v>682</v>
+      </c>
+      <c r="C437" t="s">
         <v>683</v>
       </c>
-      <c r="C437" t="s">
-        <v>684</v>
-      </c>
       <c r="D437" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E437" s="3">
         <v>44680</v>
@@ -39276,7 +39276,7 @@
         <v>235</v>
       </c>
       <c r="U437" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V437" t="s">
         <v>426</v>
@@ -39284,16 +39284,16 @@
     </row>
     <row r="438" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B438" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C438" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D438" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E438" s="3">
         <v>44680</v>
@@ -39342,7 +39342,7 @@
         <v>235</v>
       </c>
       <c r="U438" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V438" t="s">
         <v>426</v>
@@ -39350,16 +39350,16 @@
     </row>
     <row r="439" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B439" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C439" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D439" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E439" s="3">
         <v>44680</v>
@@ -39408,7 +39408,7 @@
         <v>235</v>
       </c>
       <c r="U439" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V439" t="s">
         <v>426</v>
@@ -39416,16 +39416,16 @@
     </row>
     <row r="440" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B440" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C440" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D440" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E440" s="3">
         <v>44680</v>
@@ -39477,7 +39477,7 @@
         <v>235</v>
       </c>
       <c r="U440" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V440" t="s">
         <v>426</v>
@@ -39485,16 +39485,16 @@
     </row>
     <row r="441" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B441" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C441" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D441" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E441" s="3">
         <v>44680</v>
@@ -39543,7 +39543,7 @@
         <v>235</v>
       </c>
       <c r="U441" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V441" t="s">
         <v>426</v>
@@ -39551,16 +39551,16 @@
     </row>
     <row r="442" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B442" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C442" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D442" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E442" s="3">
         <v>44680</v>
@@ -39609,7 +39609,7 @@
         <v>235</v>
       </c>
       <c r="U442" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V442" t="s">
         <v>426</v>
@@ -39617,16 +39617,16 @@
     </row>
     <row r="443" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B443" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C443" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D443" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E443" s="3">
         <v>44680</v>
@@ -39678,7 +39678,7 @@
         <v>235</v>
       </c>
       <c r="U443" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V443" t="s">
         <v>426</v>
@@ -39686,16 +39686,16 @@
     </row>
     <row r="444" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B444" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C444" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D444" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E444" s="3">
         <v>44680</v>
@@ -39744,7 +39744,7 @@
         <v>235</v>
       </c>
       <c r="U444" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V444" t="s">
         <v>426</v>
@@ -39752,16 +39752,16 @@
     </row>
     <row r="445" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B445" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C445" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D445" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E445" s="3">
         <v>44680</v>
@@ -39804,7 +39804,7 @@
         <v>235</v>
       </c>
       <c r="U445" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V445" t="s">
         <v>426</v>
@@ -39812,16 +39812,16 @@
     </row>
     <row r="446" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B446" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C446" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D446" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E446" s="3">
         <v>44680</v>
@@ -39867,7 +39867,7 @@
         <v>235</v>
       </c>
       <c r="U446" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V446" t="s">
         <v>426</v>
@@ -39875,16 +39875,16 @@
     </row>
     <row r="447" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A447" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B447" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="C447" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="B447" s="17" t="s">
-        <v>710</v>
-      </c>
-      <c r="C447" s="4" t="s">
-        <v>712</v>
-      </c>
       <c r="D447" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E447" s="18">
         <v>44706</v>
@@ -39933,10 +39933,10 @@
         <v>233</v>
       </c>
       <c r="T447" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="U447" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V447" s="4" t="s">
         <v>426</v>
@@ -39944,16 +39944,16 @@
     </row>
     <row r="448" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B448" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C448" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D448" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E448" s="3">
         <v>44706</v>
@@ -40002,7 +40002,7 @@
         <v>233</v>
       </c>
       <c r="U448" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V448" t="s">
         <v>426</v>
@@ -40010,16 +40010,16 @@
     </row>
     <row r="449" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B449" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C449" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D449" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E449" s="3">
         <v>44706</v>
@@ -40068,7 +40068,7 @@
         <v>233</v>
       </c>
       <c r="U449" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V449" t="s">
         <v>426</v>
@@ -40076,16 +40076,16 @@
     </row>
     <row r="450" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B450" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C450" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D450" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E450" s="3">
         <v>44706</v>
@@ -40134,7 +40134,7 @@
         <v>233</v>
       </c>
       <c r="U450" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V450" t="s">
         <v>426</v>
@@ -40142,16 +40142,16 @@
     </row>
     <row r="451" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B451" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C451" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D451" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E451" s="3">
         <v>44706</v>
@@ -40200,7 +40200,7 @@
         <v>233</v>
       </c>
       <c r="U451" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V451" t="s">
         <v>426</v>
@@ -40208,16 +40208,16 @@
     </row>
     <row r="452" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B452" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C452" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D452" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E452" s="3">
         <v>44706</v>
@@ -40266,7 +40266,7 @@
         <v>233</v>
       </c>
       <c r="U452" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V452" t="s">
         <v>426</v>
@@ -40274,16 +40274,16 @@
     </row>
     <row r="453" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B453" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C453" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D453" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E453" s="3">
         <v>44706</v>
@@ -40332,7 +40332,7 @@
         <v>233</v>
       </c>
       <c r="U453" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V453" t="s">
         <v>426</v>
@@ -40340,16 +40340,16 @@
     </row>
     <row r="454" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B454" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C454" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D454" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E454" s="3">
         <v>44706</v>
@@ -40398,7 +40398,7 @@
         <v>233</v>
       </c>
       <c r="U454" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V454" t="s">
         <v>426</v>
@@ -40406,16 +40406,16 @@
     </row>
     <row r="455" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B455" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C455" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D455" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E455" s="3">
         <v>44706</v>
@@ -40464,7 +40464,7 @@
         <v>233</v>
       </c>
       <c r="U455" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V455" t="s">
         <v>426</v>
@@ -40472,16 +40472,16 @@
     </row>
     <row r="456" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B456" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C456" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D456" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E456" s="3">
         <v>44706</v>
@@ -40530,7 +40530,7 @@
         <v>233</v>
       </c>
       <c r="U456" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V456" t="s">
         <v>426</v>
@@ -40538,16 +40538,16 @@
     </row>
     <row r="457" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
+        <v>723</v>
+      </c>
+      <c r="B457" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="C457" t="s">
         <v>724</v>
       </c>
-      <c r="B457" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="C457" t="s">
-        <v>725</v>
-      </c>
       <c r="D457" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E457" s="3">
         <v>44706</v>
@@ -40596,7 +40596,7 @@
         <v>233</v>
       </c>
       <c r="U457" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V457" t="s">
         <v>426</v>
@@ -40604,16 +40604,16 @@
     </row>
     <row r="458" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B458" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C458" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D458" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E458" s="3">
         <v>44706</v>
@@ -40662,7 +40662,7 @@
         <v>233</v>
       </c>
       <c r="U458" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V458" t="s">
         <v>426</v>
@@ -40670,16 +40670,16 @@
     </row>
     <row r="459" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B459" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C459" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D459" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E459" s="3">
         <v>44706</v>
@@ -40728,7 +40728,7 @@
         <v>233</v>
       </c>
       <c r="U459" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V459" t="s">
         <v>426</v>
@@ -40736,16 +40736,16 @@
     </row>
     <row r="460" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B460" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C460" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D460" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E460" s="3">
         <v>44706</v>
@@ -40794,7 +40794,7 @@
         <v>233</v>
       </c>
       <c r="U460" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V460" t="s">
         <v>426</v>
@@ -40802,16 +40802,16 @@
     </row>
     <row r="461" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B461" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C461" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D461" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E461" s="3">
         <v>44706</v>
@@ -40860,7 +40860,7 @@
         <v>233</v>
       </c>
       <c r="U461" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V461" t="s">
         <v>426</v>
@@ -40868,16 +40868,16 @@
     </row>
     <row r="462" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B462" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C462" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D462" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E462" s="3">
         <v>44706</v>
@@ -40926,7 +40926,7 @@
         <v>233</v>
       </c>
       <c r="U462" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V462" t="s">
         <v>426</v>
@@ -40934,16 +40934,16 @@
     </row>
     <row r="463" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B463" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C463" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D463" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E463" s="3">
         <v>44706</v>
@@ -40992,7 +40992,7 @@
         <v>233</v>
       </c>
       <c r="U463" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V463" t="s">
         <v>426</v>
@@ -41000,16 +41000,16 @@
     </row>
     <row r="464" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B464" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C464" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D464" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E464" s="3">
         <v>44706</v>
@@ -41058,7 +41058,7 @@
         <v>233</v>
       </c>
       <c r="U464" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V464" t="s">
         <v>426</v>
@@ -41066,16 +41066,16 @@
     </row>
     <row r="465" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B465" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C465" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D465" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E465" s="3">
         <v>44706</v>
@@ -41124,7 +41124,7 @@
         <v>233</v>
       </c>
       <c r="U465" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V465" t="s">
         <v>426</v>
@@ -41132,16 +41132,16 @@
     </row>
     <row r="466" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B466" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="C466" t="s">
         <v>734</v>
       </c>
-      <c r="C466" t="s">
-        <v>735</v>
-      </c>
       <c r="D466" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E466" s="3">
         <v>44711</v>
@@ -41190,7 +41190,7 @@
         <v>233</v>
       </c>
       <c r="U466" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V466" t="s">
         <v>426</v>
@@ -41198,16 +41198,16 @@
     </row>
     <row r="467" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B467" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C467" t="s">
+        <v>740</v>
+      </c>
+      <c r="D467" t="s">
         <v>741</v>
-      </c>
-      <c r="D467" t="s">
-        <v>742</v>
       </c>
       <c r="E467" s="3">
         <v>44711</v>
@@ -41256,7 +41256,7 @@
         <v>233</v>
       </c>
       <c r="U467" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V467" t="s">
         <v>426</v>
@@ -41264,16 +41264,16 @@
     </row>
     <row r="468" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B468" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C468" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D468" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E468" s="3">
         <v>44711</v>
@@ -41322,7 +41322,7 @@
         <v>233</v>
       </c>
       <c r="U468" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V468" t="s">
         <v>426</v>
@@ -41330,16 +41330,16 @@
     </row>
     <row r="469" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B469" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C469" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D469" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E469" s="3">
         <v>44711</v>
@@ -41388,7 +41388,7 @@
         <v>233</v>
       </c>
       <c r="U469" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V469" t="s">
         <v>426</v>
@@ -41396,16 +41396,16 @@
     </row>
     <row r="470" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B470" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="C470" t="s">
         <v>736</v>
       </c>
-      <c r="C470" t="s">
+      <c r="D470" t="s">
         <v>737</v>
-      </c>
-      <c r="D470" t="s">
-        <v>738</v>
       </c>
       <c r="E470" s="3">
         <v>44711</v>
@@ -41457,7 +41457,7 @@
         <v>233</v>
       </c>
       <c r="U470" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V470" t="s">
         <v>426</v>
@@ -41465,16 +41465,16 @@
     </row>
     <row r="471" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B471" s="12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C471" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D471" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E471" s="3">
         <v>44711</v>
@@ -41523,7 +41523,7 @@
         <v>233</v>
       </c>
       <c r="U471" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V471" t="s">
         <v>426</v>
@@ -41531,16 +41531,16 @@
     </row>
     <row r="472" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B472" s="12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C472" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D472" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E472" s="3">
         <v>44711</v>
@@ -41589,7 +41589,7 @@
         <v>233</v>
       </c>
       <c r="U472" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V472" t="s">
         <v>426</v>
@@ -41597,16 +41597,16 @@
     </row>
     <row r="473" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
+        <v>747</v>
+      </c>
+      <c r="B473" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="C473" t="s">
         <v>748</v>
       </c>
-      <c r="B473" s="12" t="s">
-        <v>747</v>
-      </c>
-      <c r="C473" t="s">
+      <c r="D473" t="s">
         <v>749</v>
-      </c>
-      <c r="D473" t="s">
-        <v>750</v>
       </c>
       <c r="E473" s="3">
         <v>44711</v>
@@ -41658,7 +41658,7 @@
         <v>233</v>
       </c>
       <c r="U473" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V473" t="s">
         <v>426</v>
@@ -41666,16 +41666,16 @@
     </row>
     <row r="474" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B474" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C474" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D474" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E474" s="3">
         <v>44711</v>
@@ -41724,7 +41724,7 @@
         <v>233</v>
       </c>
       <c r="U474" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V474" t="s">
         <v>426</v>
@@ -41732,16 +41732,16 @@
     </row>
     <row r="475" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B475" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C475" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D475" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E475" s="3">
         <v>44711</v>
@@ -41790,7 +41790,7 @@
         <v>233</v>
       </c>
       <c r="U475" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V475" t="s">
         <v>426</v>
@@ -41798,16 +41798,16 @@
     </row>
     <row r="476" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B476" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C476" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D476" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E476" s="3">
         <v>44711</v>
@@ -41856,7 +41856,7 @@
         <v>233</v>
       </c>
       <c r="U476" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V476" t="s">
         <v>426</v>
@@ -41864,16 +41864,16 @@
     </row>
     <row r="477" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B477" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C477" t="s">
+        <v>738</v>
+      </c>
+      <c r="D477" t="s">
         <v>739</v>
-      </c>
-      <c r="D477" t="s">
-        <v>740</v>
       </c>
       <c r="E477" s="3">
         <v>44711</v>
@@ -41925,7 +41925,7 @@
         <v>233</v>
       </c>
       <c r="U477" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V477" t="s">
         <v>426</v>
@@ -41933,16 +41933,16 @@
     </row>
     <row r="478" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
+        <v>762</v>
+      </c>
+      <c r="B478" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="C478" t="s">
         <v>763</v>
       </c>
-      <c r="B478" s="12" t="s">
-        <v>762</v>
-      </c>
-      <c r="C478" t="s">
-        <v>764</v>
-      </c>
       <c r="D478" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E478" s="3">
         <v>44711</v>
@@ -41991,7 +41991,7 @@
         <v>233</v>
       </c>
       <c r="U478" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V478" t="s">
         <v>426</v>
@@ -41999,16 +41999,16 @@
     </row>
     <row r="479" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B479" s="12" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C479" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D479" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E479" s="3">
         <v>44711</v>
@@ -42057,7 +42057,7 @@
         <v>233</v>
       </c>
       <c r="U479" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V479" t="s">
         <v>426</v>
@@ -42065,16 +42065,16 @@
     </row>
     <row r="480" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B480" s="12" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C480" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D480" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E480" s="3">
         <v>44711</v>
@@ -42123,7 +42123,7 @@
         <v>233</v>
       </c>
       <c r="U480" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V480" t="s">
         <v>426</v>
@@ -42131,16 +42131,16 @@
     </row>
     <row r="481" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B481" s="12" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C481" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D481" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E481" s="3">
         <v>44711</v>
@@ -42189,7 +42189,7 @@
         <v>233</v>
       </c>
       <c r="U481" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V481" t="s">
         <v>426</v>
@@ -42197,16 +42197,16 @@
     </row>
     <row r="482" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B482" s="12" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C482" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D482" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E482" s="3">
         <v>44711</v>
@@ -42255,7 +42255,7 @@
         <v>233</v>
       </c>
       <c r="U482" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V482" t="s">
         <v>426</v>
@@ -42263,16 +42263,16 @@
     </row>
     <row r="483" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B483" s="12" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C483" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D483" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E483" s="3">
         <v>44711</v>
@@ -42321,7 +42321,7 @@
         <v>233</v>
       </c>
       <c r="U483" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V483" t="s">
         <v>426</v>
@@ -42329,16 +42329,16 @@
     </row>
     <row r="484" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
+        <v>770</v>
+      </c>
+      <c r="B484" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="C484" t="s">
         <v>771</v>
       </c>
-      <c r="B484" s="12" t="s">
-        <v>770</v>
-      </c>
-      <c r="C484" t="s">
-        <v>772</v>
-      </c>
       <c r="D484" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E484" s="3">
         <v>44711</v>
@@ -42390,7 +42390,7 @@
         <v>233</v>
       </c>
       <c r="U484" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V484" t="s">
         <v>426</v>
@@ -42398,16 +42398,16 @@
     </row>
     <row r="485" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B485" s="12" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C485" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D485" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E485" s="3">
         <v>44711</v>
@@ -42456,7 +42456,7 @@
         <v>233</v>
       </c>
       <c r="U485" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V485" t="s">
         <v>426</v>
@@ -42464,16 +42464,16 @@
     </row>
     <row r="486" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B486" s="12" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C486" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D486" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E486" s="3">
         <v>44711</v>
@@ -42522,7 +42522,7 @@
         <v>233</v>
       </c>
       <c r="U486" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V486" t="s">
         <v>426</v>
@@ -42530,16 +42530,16 @@
     </row>
     <row r="487" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B487" s="12" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C487" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D487" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E487" s="3">
         <v>44711</v>
@@ -42588,7 +42588,7 @@
         <v>233</v>
       </c>
       <c r="U487" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V487" t="s">
         <v>426</v>
@@ -42596,16 +42596,16 @@
     </row>
     <row r="488" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B488" s="12" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C488" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D488" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E488" s="3">
         <v>44711</v>
@@ -42657,7 +42657,7 @@
         <v>233</v>
       </c>
       <c r="U488" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V488" t="s">
         <v>426</v>
@@ -42665,16 +42665,16 @@
     </row>
     <row r="489" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B489" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C489" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D489" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E489" s="3">
         <v>44711</v>
@@ -42728,16 +42728,16 @@
     </row>
     <row r="490" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A490" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B490" s="17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D490" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E490" s="18">
         <v>44711</v>
@@ -42786,7 +42786,7 @@
         <v>233</v>
       </c>
       <c r="T490" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="U490" t="s">
         <v>301</v>
@@ -42797,16 +42797,16 @@
     </row>
     <row r="491" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A491" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B491" s="17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D491" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E491" s="18">
         <v>44711</v>
@@ -42855,7 +42855,7 @@
         <v>233</v>
       </c>
       <c r="T491" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="U491" t="s">
         <v>301</v>
@@ -42866,16 +42866,16 @@
     </row>
     <row r="492" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B492" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C492" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D492" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E492" s="3">
         <v>44711</v>
@@ -42932,16 +42932,16 @@
     </row>
     <row r="493" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B493" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C493" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D493" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E493" s="3">
         <v>44711</v>
@@ -42998,16 +42998,16 @@
     </row>
     <row r="494" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B494" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C494" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D494" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E494" s="3">
         <v>44711</v>
@@ -43064,16 +43064,16 @@
     </row>
     <row r="495" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B495" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C495" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D495" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E495" s="3">
         <v>44711</v>
@@ -43130,16 +43130,16 @@
     </row>
     <row r="496" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B496" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C496" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D496" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E496" s="3">
         <v>44711</v>
@@ -43196,16 +43196,16 @@
     </row>
     <row r="497" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B497" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C497" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D497" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E497" s="3">
         <v>44711</v>
@@ -43262,16 +43262,16 @@
     </row>
     <row r="498" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B498" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C498" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D498" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E498" s="3">
         <v>44711</v>
@@ -43328,16 +43328,16 @@
     </row>
     <row r="499" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B499" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C499" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D499" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E499" s="3">
         <v>44711</v>
@@ -43394,16 +43394,16 @@
     </row>
     <row r="500" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B500" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C500" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D500" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E500" s="3">
         <v>44711</v>
@@ -43460,16 +43460,16 @@
     </row>
     <row r="501" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A501" s="19" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B501" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="C501" s="19" t="s">
+        <v>800</v>
+      </c>
+      <c r="D501" s="19" t="s">
         <v>793</v>
-      </c>
-      <c r="C501" s="19" t="s">
-        <v>801</v>
-      </c>
-      <c r="D501" s="19" t="s">
-        <v>794</v>
       </c>
       <c r="E501" s="20">
         <v>44711</v>
@@ -43518,10 +43518,10 @@
         <v>233</v>
       </c>
       <c r="T501" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="U501" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V501" s="19" t="s">
         <v>426</v>
@@ -43529,16 +43529,16 @@
     </row>
     <row r="502" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B502" s="12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C502" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D502" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E502" s="3">
         <v>44711</v>
@@ -43587,7 +43587,7 @@
         <v>233</v>
       </c>
       <c r="U502" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V502" t="s">
         <v>426</v>
@@ -43595,16 +43595,16 @@
     </row>
     <row r="503" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B503" s="12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C503" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D503" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E503" s="3">
         <v>44711</v>
@@ -43653,7 +43653,7 @@
         <v>233</v>
       </c>
       <c r="U503" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V503" t="s">
         <v>426</v>
@@ -43661,16 +43661,16 @@
     </row>
     <row r="504" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B504" s="12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C504" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D504" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E504" s="3">
         <v>44711</v>
@@ -43719,7 +43719,7 @@
         <v>233</v>
       </c>
       <c r="U504" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V504" t="s">
         <v>426</v>
@@ -43727,16 +43727,16 @@
     </row>
     <row r="505" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A505" s="19" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B505" s="22" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C505" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D505" s="19" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E505" s="20">
         <v>44711</v>
@@ -43785,10 +43785,10 @@
         <v>233</v>
       </c>
       <c r="T505" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="U505" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V505" s="19" t="s">
         <v>426</v>
@@ -43796,16 +43796,16 @@
     </row>
     <row r="506" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A506" s="19" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B506" s="22" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C506" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D506" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E506" s="20">
         <v>44711</v>
@@ -43854,10 +43854,10 @@
         <v>233</v>
       </c>
       <c r="T506" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="U506" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V506" s="19" t="s">
         <v>426</v>
@@ -43865,16 +43865,16 @@
     </row>
     <row r="507" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A507" s="19" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B507" s="22" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C507" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D507" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E507" s="20">
         <v>44711</v>
@@ -43923,10 +43923,10 @@
         <v>233</v>
       </c>
       <c r="T507" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="U507" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V507" s="19" t="s">
         <v>426</v>
@@ -43934,16 +43934,16 @@
     </row>
     <row r="508" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B508" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C508" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D508" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E508" s="3">
         <v>44711</v>
@@ -43992,7 +43992,7 @@
         <v>233</v>
       </c>
       <c r="U508" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V508" t="s">
         <v>426</v>
@@ -44000,16 +44000,16 @@
     </row>
     <row r="509" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B509" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C509" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D509" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E509" s="3">
         <v>44711</v>
@@ -44058,7 +44058,7 @@
         <v>233</v>
       </c>
       <c r="U509" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V509" t="s">
         <v>426</v>
@@ -44066,16 +44066,16 @@
     </row>
     <row r="510" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B510" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C510" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D510" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E510" s="3">
         <v>44711</v>
@@ -44124,7 +44124,7 @@
         <v>233</v>
       </c>
       <c r="U510" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V510" t="s">
         <v>426</v>
@@ -44132,16 +44132,16 @@
     </row>
     <row r="511" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B511" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C511" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D511" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E511" s="3">
         <v>44711</v>
@@ -44190,7 +44190,7 @@
         <v>233</v>
       </c>
       <c r="U511" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V511" t="s">
         <v>426</v>
@@ -44388,178 +44388,178 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B2" t="s">
         <v>741</v>
-      </c>
-      <c r="B2" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>748</v>
+      </c>
+      <c r="B5" t="s">
         <v>749</v>
-      </c>
-      <c r="B5" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B6" t="s">
         <v>739</v>
-      </c>
-      <c r="B6" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>763</v>
+      </c>
+      <c r="B7" t="s">
         <v>764</v>
-      </c>
-      <c r="B7" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B8" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B13" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B14" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B15" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B16" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B17" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B18" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B20" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B21" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B22" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>
